--- a/data/0.reference/3.clean/treated_oromiya_merge_status.xlsx
+++ b/data/0.reference/3.clean/treated_oromiya_merge_status.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="383">
   <si>
     <t xml:space="preserve">merge_</t>
   </si>
@@ -137,13 +137,34 @@
     <t xml:space="preserve">arsi</t>
   </si>
   <si>
+    <t xml:space="preserve">arsi negele</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aliwayo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ali wayo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b/reji</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dashe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">danshe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mararo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aga</t>
+  </si>
+  <si>
     <t xml:space="preserve">arsii</t>
   </si>
   <si>
-    <t xml:space="preserve">Zone not in census</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unkown</t>
+    <t xml:space="preserve">east hararge</t>
   </si>
   <si>
     <t xml:space="preserve">bedeno</t>
@@ -155,9 +176,6 @@
     <t xml:space="preserve">bedeno-town</t>
   </si>
   <si>
-    <t xml:space="preserve">east hararge</t>
-  </si>
-  <si>
     <t xml:space="preserve">dheertu</t>
   </si>
   <si>
@@ -263,7 +281,37 @@
     <t xml:space="preserve">mechawa</t>
   </si>
   <si>
-    <t xml:space="preserve">dadar</t>
+    <t xml:space="preserve">daro lebu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jilba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jilbo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kebele 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mikay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">milkay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hamsiso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sekia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sakina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deder</t>
   </si>
   <si>
     <t xml:space="preserve">golu</t>
@@ -272,6 +320,9 @@
     <t xml:space="preserve">h/quni</t>
   </si>
   <si>
+    <t xml:space="preserve">hufe</t>
+  </si>
+  <si>
     <t xml:space="preserve">m/dadar</t>
   </si>
   <si>
@@ -281,34 +332,7 @@
     <t xml:space="preserve">yatuu</t>
   </si>
   <si>
-    <t xml:space="preserve">daro lebu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jilba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jilbo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kebele 02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mikay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">milkay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nano</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hamsiso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sekia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sakina</t>
+    <t xml:space="preserve">yatu</t>
   </si>
   <si>
     <t xml:space="preserve">deksis</t>
@@ -422,18 +446,24 @@
     <t xml:space="preserve">w/kocha</t>
   </si>
   <si>
-    <t xml:space="preserve">fadiis</t>
+    <t xml:space="preserve">fedis</t>
   </si>
   <si>
     <t xml:space="preserve">badhaatuu</t>
   </si>
   <si>
-    <t xml:space="preserve">fedis</t>
-  </si>
-  <si>
     <t xml:space="preserve">bapatu</t>
   </si>
   <si>
+    <t xml:space="preserve">bedha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bereda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bidbare</t>
+  </si>
+  <si>
     <t xml:space="preserve">bidbora</t>
   </si>
   <si>
@@ -443,30 +473,24 @@
     <t xml:space="preserve">facatuu</t>
   </si>
   <si>
+    <t xml:space="preserve">kaboot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boko-town</t>
+  </si>
+  <si>
     <t xml:space="preserve">mul’ata</t>
   </si>
   <si>
+    <t xml:space="preserve">mulat</t>
+  </si>
+  <si>
     <t xml:space="preserve">muleta</t>
   </si>
   <si>
     <t xml:space="preserve">qarree</t>
   </si>
   <si>
-    <t xml:space="preserve">bereda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bedha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bidbare</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kaboot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mulat</t>
-  </si>
-  <si>
     <t xml:space="preserve">g /muxii</t>
   </si>
   <si>
@@ -614,15 +638,33 @@
     <t xml:space="preserve">gursum</t>
   </si>
   <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a/s/o</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kebso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b/nagaya</t>
+  </si>
+  <si>
     <t xml:space="preserve">biyyo  nagaya</t>
   </si>
   <si>
     <t xml:space="preserve">daayifarsa</t>
   </si>
   <si>
+    <t xml:space="preserve">dayfars</t>
+  </si>
+  <si>
     <t xml:space="preserve">day feres</t>
   </si>
   <si>
+    <t xml:space="preserve">fu/huji</t>
+  </si>
+  <si>
     <t xml:space="preserve">funya jubaa</t>
   </si>
   <si>
@@ -632,24 +674,6 @@
     <t xml:space="preserve">muyedin</t>
   </si>
   <si>
-    <t xml:space="preserve">gursuum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a/s/o</t>
-  </si>
-  <si>
-    <t xml:space="preserve">b/nagaya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dayfars</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fu/huji</t>
-  </si>
-  <si>
     <t xml:space="preserve">habro</t>
   </si>
   <si>
@@ -716,7 +740,7 @@
     <t xml:space="preserve">haqa</t>
   </si>
   <si>
-    <t xml:space="preserve">hetosa</t>
+    <t xml:space="preserve">hitosa</t>
   </si>
   <si>
     <t xml:space="preserve">2</t>
@@ -731,12 +755,18 @@
     <t xml:space="preserve">guchi habe</t>
   </si>
   <si>
+    <t xml:space="preserve">guche habe</t>
+  </si>
+  <si>
     <t xml:space="preserve">sh/sho</t>
   </si>
   <si>
     <t xml:space="preserve">welergi</t>
   </si>
   <si>
+    <t xml:space="preserve">wul argi</t>
+  </si>
+  <si>
     <t xml:space="preserve">j/z/ social affairs</t>
   </si>
   <si>
@@ -848,84 +878,66 @@
     <t xml:space="preserve">shifa</t>
   </si>
   <si>
-    <t xml:space="preserve">m/tola</t>
+    <t xml:space="preserve">manna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">calanqoo  01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cayol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h /bilisumma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h/bity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wayibar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">waybar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wogbay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">midega tola</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bilisumaa</t>
   </si>
   <si>
     <t xml:space="preserve">leencaa</t>
   </si>
   <si>
+    <t xml:space="preserve">lencha</t>
+  </si>
+  <si>
     <t xml:space="preserve">m/balii</t>
   </si>
   <si>
-    <t xml:space="preserve">manna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">meeta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">calanqoo  01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">h /bilisumma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wayibar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">waybar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cayol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">h/bity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wogbay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">midega tola</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bilisumaa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lencha</t>
+    <t xml:space="preserve">mudibali</t>
   </si>
   <si>
     <t xml:space="preserve">mu/balaa</t>
   </si>
   <si>
-    <t xml:space="preserve">mudibali</t>
-  </si>
-  <si>
     <t xml:space="preserve">tarkanfata</t>
   </si>
   <si>
     <t xml:space="preserve">terkafeta</t>
   </si>
   <si>
-    <t xml:space="preserve">nagele</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aliwayo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">b/reji</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dashe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mararo</t>
-  </si>
-  <si>
     <t xml:space="preserve">oda muda</t>
   </si>
   <si>
@@ -1053,6 +1065,9 @@
   </si>
   <si>
     <t xml:space="preserve">l/b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sire-town</t>
   </si>
   <si>
     <t xml:space="preserve">sire 01</t>
@@ -1946,7 +1961,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="B18" t="s">
         <v>10</v>
@@ -1957,230 +1972,238 @@
       <c r="D18" t="s">
         <v>41</v>
       </c>
-      <c r="E18"/>
+      <c r="E18" t="s">
+        <v>42</v>
+      </c>
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18"/>
-      <c r="H18"/>
+      <c r="G18" t="s">
+        <v>41</v>
+      </c>
+      <c r="H18" t="s">
+        <v>43</v>
+      </c>
       <c r="I18" t="n">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="B19" t="s">
         <v>10</v>
       </c>
       <c r="C19" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="D19" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" t="s">
         <v>44</v>
       </c>
-      <c r="E19" t="s">
-        <v>45</v>
-      </c>
-      <c r="F19"/>
+      <c r="F19" t="s">
+        <v>11</v>
+      </c>
       <c r="G19" t="s">
-        <v>44</v>
-      </c>
-      <c r="H19" t="s">
-        <v>46</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="H19"/>
       <c r="I19" t="n">
-        <v>9</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B20" t="s">
         <v>10</v>
       </c>
       <c r="C20" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="D20" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E20" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="G20" t="s">
-        <v>44</v>
-      </c>
-      <c r="H20"/>
+        <v>41</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
       <c r="I20" t="n">
-        <v>17</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="B21" t="s">
         <v>10</v>
       </c>
       <c r="C21" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="D21" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E21" t="s">
-        <v>49</v>
-      </c>
-      <c r="F21"/>
+        <v>47</v>
+      </c>
+      <c r="F21" t="s">
+        <v>11</v>
+      </c>
       <c r="G21" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H21" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I21" t="n">
-        <v>10</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="B22" t="s">
         <v>10</v>
       </c>
       <c r="C22" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="D22" t="s">
-        <v>44</v>
-      </c>
-      <c r="E22" t="s">
-        <v>51</v>
-      </c>
-      <c r="F22"/>
+        <v>41</v>
+      </c>
+      <c r="E22"/>
+      <c r="F22" t="s">
+        <v>11</v>
+      </c>
       <c r="G22" t="s">
-        <v>44</v>
-      </c>
-      <c r="H22" t="s">
+        <v>41</v>
+      </c>
+      <c r="H22"/>
+      <c r="I22" t="n">
         <v>52</v>
-      </c>
-      <c r="I22" t="n">
-        <v>11</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="B23" t="s">
         <v>10</v>
       </c>
       <c r="C23" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="D23" t="s">
-        <v>44</v>
-      </c>
-      <c r="E23" t="s">
-        <v>53</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="E23"/>
       <c r="F23" t="s">
-        <v>47</v>
-      </c>
-      <c r="G23" t="s">
-        <v>44</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="G23"/>
       <c r="H23"/>
       <c r="I23" t="n">
-        <v>21</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="B24" t="s">
         <v>10</v>
       </c>
       <c r="C24" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D24" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="E24" t="s">
-        <v>54</v>
-      </c>
-      <c r="F24"/>
+        <v>52</v>
+      </c>
+      <c r="F24" t="s">
+        <v>50</v>
+      </c>
       <c r="G24" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="H24" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I24" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="B25" t="s">
         <v>10</v>
       </c>
       <c r="C25" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D25" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="E25" t="s">
-        <v>56</v>
-      </c>
-      <c r="F25"/>
+        <v>54</v>
+      </c>
+      <c r="F25" t="s">
+        <v>50</v>
+      </c>
       <c r="G25" t="s">
-        <v>44</v>
-      </c>
-      <c r="H25" t="s">
-        <v>57</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="H25"/>
       <c r="I25" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B26" t="s">
         <v>10</v>
       </c>
       <c r="C26" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D26" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="E26" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F26" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G26" t="s">
-        <v>44</v>
-      </c>
-      <c r="H26"/>
+        <v>51</v>
+      </c>
+      <c r="H26" t="s">
+        <v>56</v>
+      </c>
       <c r="I26" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27">
@@ -2191,25 +2214,25 @@
         <v>10</v>
       </c>
       <c r="C27" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D27" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="E27" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F27" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G27" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="H27" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I27" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28">
@@ -2220,21 +2243,23 @@
         <v>10</v>
       </c>
       <c r="C28" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D28" t="s">
-        <v>44</v>
-      </c>
-      <c r="E28"/>
+        <v>51</v>
+      </c>
+      <c r="E28" t="s">
+        <v>59</v>
+      </c>
       <c r="F28" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G28" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="H28"/>
       <c r="I28" t="n">
-        <v>93</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29">
@@ -2245,50 +2270,54 @@
         <v>10</v>
       </c>
       <c r="C29" t="s">
+        <v>50</v>
+      </c>
+      <c r="D29" t="s">
+        <v>51</v>
+      </c>
+      <c r="E29" t="s">
+        <v>60</v>
+      </c>
+      <c r="F29" t="s">
+        <v>50</v>
+      </c>
+      <c r="G29" t="s">
+        <v>51</v>
+      </c>
+      <c r="H29" t="s">
         <v>61</v>
       </c>
-      <c r="D29" t="s">
-        <v>62</v>
-      </c>
-      <c r="E29" t="s">
-        <v>13</v>
-      </c>
-      <c r="F29" t="s">
-        <v>61</v>
-      </c>
-      <c r="G29" t="s">
-        <v>63</v>
-      </c>
-      <c r="H29" t="s">
-        <v>64</v>
-      </c>
       <c r="I29" t="n">
-        <v>30</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B30" t="s">
         <v>10</v>
       </c>
       <c r="C30" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="D30" t="s">
+        <v>51</v>
+      </c>
+      <c r="E30" t="s">
         <v>62</v>
       </c>
-      <c r="E30"/>
       <c r="F30" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="G30" t="s">
+        <v>51</v>
+      </c>
+      <c r="H30" t="s">
         <v>63</v>
       </c>
-      <c r="H30"/>
       <c r="I30" t="n">
-        <v>29</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31">
@@ -2299,23 +2328,23 @@
         <v>10</v>
       </c>
       <c r="C31" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="D31" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="E31" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F31" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="G31" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="H31"/>
       <c r="I31" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32">
@@ -2326,54 +2355,50 @@
         <v>10</v>
       </c>
       <c r="C32" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="D32" t="s">
+        <v>51</v>
+      </c>
+      <c r="E32" t="s">
         <v>65</v>
       </c>
-      <c r="E32" t="s">
-        <v>67</v>
-      </c>
       <c r="F32" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="G32" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="H32" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I32" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B33" t="s">
         <v>10</v>
       </c>
       <c r="C33" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="D33" t="s">
-        <v>65</v>
-      </c>
-      <c r="E33" t="s">
-        <v>69</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="E33"/>
       <c r="F33" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="G33" t="s">
-        <v>65</v>
-      </c>
-      <c r="H33" t="s">
-        <v>70</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="H33"/>
       <c r="I33" t="n">
-        <v>15</v>
+        <v>93</v>
       </c>
     </row>
     <row r="34">
@@ -2384,25 +2409,25 @@
         <v>10</v>
       </c>
       <c r="C34" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="D34" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E34" t="s">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="F34" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="G34" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="H34" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I34" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35">
@@ -2413,23 +2438,21 @@
         <v>10</v>
       </c>
       <c r="C35" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="D35" t="s">
-        <v>65</v>
-      </c>
-      <c r="E35" t="s">
-        <v>73</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="E35"/>
       <c r="F35" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="G35" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="H35"/>
       <c r="I35" t="n">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36">
@@ -2443,43 +2466,49 @@
         <v>24</v>
       </c>
       <c r="D36" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="E36" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F36" t="s">
         <v>24</v>
       </c>
       <c r="G36" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="H36"/>
       <c r="I36" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="B37" t="s">
         <v>10</v>
       </c>
       <c r="C37" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="D37" t="s">
-        <v>75</v>
-      </c>
-      <c r="E37"/>
+        <v>71</v>
+      </c>
+      <c r="E37" t="s">
+        <v>73</v>
+      </c>
       <c r="F37" t="s">
-        <v>47</v>
-      </c>
-      <c r="G37"/>
-      <c r="H37"/>
+        <v>24</v>
+      </c>
+      <c r="G37" t="s">
+        <v>71</v>
+      </c>
+      <c r="H37" t="s">
+        <v>74</v>
+      </c>
       <c r="I37" t="n">
-        <v>83</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38">
@@ -2490,25 +2519,25 @@
         <v>10</v>
       </c>
       <c r="C38" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="D38" t="s">
+        <v>71</v>
+      </c>
+      <c r="E38" t="s">
+        <v>75</v>
+      </c>
+      <c r="F38" t="s">
+        <v>24</v>
+      </c>
+      <c r="G38" t="s">
+        <v>71</v>
+      </c>
+      <c r="H38" t="s">
         <v>76</v>
       </c>
-      <c r="E38" t="s">
-        <v>77</v>
-      </c>
-      <c r="F38" t="s">
-        <v>61</v>
-      </c>
-      <c r="G38" t="s">
-        <v>76</v>
-      </c>
-      <c r="H38" t="s">
-        <v>78</v>
-      </c>
       <c r="I38" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39">
@@ -2519,169 +2548,189 @@
         <v>10</v>
       </c>
       <c r="C39" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="D39" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E39" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F39" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="G39" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H39" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I39" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B40" t="s">
         <v>10</v>
       </c>
       <c r="C40" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="D40" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E40" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F40" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="G40" t="s">
-        <v>76</v>
-      </c>
-      <c r="H40" t="s">
-        <v>82</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="H40"/>
       <c r="I40" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="B41" t="s">
         <v>10</v>
       </c>
       <c r="C41" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="D41" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="E41" t="s">
-        <v>84</v>
-      </c>
-      <c r="F41"/>
-      <c r="G41"/>
+        <v>80</v>
+      </c>
+      <c r="F41" t="s">
+        <v>24</v>
+      </c>
+      <c r="G41" t="s">
+        <v>71</v>
+      </c>
       <c r="H41"/>
       <c r="I41" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B42" t="s">
         <v>10</v>
       </c>
       <c r="C42" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D42" t="s">
-        <v>83</v>
-      </c>
-      <c r="E42" t="s">
-        <v>85</v>
-      </c>
-      <c r="F42"/>
+        <v>81</v>
+      </c>
+      <c r="E42"/>
+      <c r="F42" t="s">
+        <v>50</v>
+      </c>
       <c r="G42"/>
       <c r="H42"/>
       <c r="I42" t="n">
-        <v>14</v>
+        <v>83</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="B43" t="s">
         <v>10</v>
       </c>
       <c r="C43" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="D43" t="s">
+        <v>82</v>
+      </c>
+      <c r="E43" t="s">
         <v>83</v>
       </c>
-      <c r="E43" t="s">
-        <v>86</v>
-      </c>
-      <c r="F43"/>
-      <c r="G43"/>
-      <c r="H43"/>
+      <c r="F43" t="s">
+        <v>67</v>
+      </c>
+      <c r="G43" t="s">
+        <v>82</v>
+      </c>
+      <c r="H43" t="s">
+        <v>84</v>
+      </c>
       <c r="I43" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="B44" t="s">
         <v>10</v>
       </c>
       <c r="C44" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="D44" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E44" t="s">
-        <v>87</v>
-      </c>
-      <c r="F44"/>
-      <c r="G44"/>
-      <c r="H44"/>
+        <v>85</v>
+      </c>
+      <c r="F44" t="s">
+        <v>67</v>
+      </c>
+      <c r="G44" t="s">
+        <v>82</v>
+      </c>
+      <c r="H44" t="s">
+        <v>86</v>
+      </c>
       <c r="I44" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="B45" t="s">
         <v>10</v>
       </c>
       <c r="C45" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="D45" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E45" t="s">
+        <v>87</v>
+      </c>
+      <c r="F45" t="s">
+        <v>67</v>
+      </c>
+      <c r="G45" t="s">
+        <v>82</v>
+      </c>
+      <c r="H45" t="s">
         <v>88</v>
       </c>
-      <c r="F45"/>
-      <c r="G45"/>
-      <c r="H45"/>
       <c r="I45" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="46">
@@ -2692,7 +2741,7 @@
         <v>10</v>
       </c>
       <c r="C46" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D46" t="s">
         <v>89</v>
@@ -2701,7 +2750,7 @@
         <v>90</v>
       </c>
       <c r="F46" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="G46" t="s">
         <v>89</v>
@@ -2721,7 +2770,7 @@
         <v>10</v>
       </c>
       <c r="C47" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D47" t="s">
         <v>89</v>
@@ -2730,13 +2779,13 @@
         <v>92</v>
       </c>
       <c r="F47" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="G47" t="s">
         <v>89</v>
       </c>
       <c r="H47" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="I47" t="n">
         <v>1</v>
@@ -2750,7 +2799,7 @@
         <v>10</v>
       </c>
       <c r="C48" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D48" t="s">
         <v>89</v>
@@ -2759,7 +2808,7 @@
         <v>93</v>
       </c>
       <c r="F48" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="G48" t="s">
         <v>89</v>
@@ -2779,7 +2828,7 @@
         <v>10</v>
       </c>
       <c r="C49" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D49" t="s">
         <v>89</v>
@@ -2788,7 +2837,7 @@
         <v>95</v>
       </c>
       <c r="F49" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="G49" t="s">
         <v>89</v>
@@ -2808,7 +2857,7 @@
         <v>10</v>
       </c>
       <c r="C50" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D50" t="s">
         <v>89</v>
@@ -2817,7 +2866,7 @@
         <v>97</v>
       </c>
       <c r="F50" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="G50" t="s">
         <v>89</v>
@@ -2831,13 +2880,13 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B51" t="s">
         <v>10</v>
       </c>
       <c r="C51" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D51" t="s">
         <v>99</v>
@@ -2846,25 +2895,27 @@
         <v>100</v>
       </c>
       <c r="F51" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G51" t="s">
         <v>99</v>
       </c>
-      <c r="H51"/>
+      <c r="H51" t="s">
+        <v>100</v>
+      </c>
       <c r="I51" t="n">
-        <v>61</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B52" t="s">
         <v>10</v>
       </c>
       <c r="C52" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D52" t="s">
         <v>99</v>
@@ -2873,14 +2924,16 @@
         <v>101</v>
       </c>
       <c r="F52" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G52" t="s">
         <v>99</v>
       </c>
-      <c r="H52"/>
+      <c r="H52" t="s">
+        <v>102</v>
+      </c>
       <c r="I52" t="n">
-        <v>63</v>
+        <v>14</v>
       </c>
     </row>
     <row r="53">
@@ -2891,52 +2944,50 @@
         <v>10</v>
       </c>
       <c r="C53" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D53" t="s">
         <v>99</v>
       </c>
       <c r="E53" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F53" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G53" t="s">
         <v>99</v>
       </c>
       <c r="H53"/>
       <c r="I53" t="n">
-        <v>55</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B54" t="s">
         <v>10</v>
       </c>
       <c r="C54" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D54" t="s">
         <v>99</v>
       </c>
       <c r="E54" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F54" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G54" t="s">
         <v>99</v>
       </c>
-      <c r="H54" t="s">
-        <v>104</v>
-      </c>
+      <c r="H54"/>
       <c r="I54" t="n">
-        <v>59</v>
+        <v>15</v>
       </c>
     </row>
     <row r="55">
@@ -2947,22 +2998,22 @@
         <v>10</v>
       </c>
       <c r="C55" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="D55" t="s">
+        <v>99</v>
+      </c>
+      <c r="E55" t="s">
         <v>105</v>
       </c>
-      <c r="E55" t="s">
+      <c r="F55" t="s">
+        <v>50</v>
+      </c>
+      <c r="G55" t="s">
+        <v>99</v>
+      </c>
+      <c r="H55" t="s">
         <v>106</v>
-      </c>
-      <c r="F55" t="s">
-        <v>24</v>
-      </c>
-      <c r="G55" t="s">
-        <v>105</v>
-      </c>
-      <c r="H55" t="s">
-        <v>107</v>
       </c>
       <c r="I55" t="n">
         <v>13</v>
@@ -2970,89 +3021,83 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B56" t="s">
         <v>10</v>
       </c>
       <c r="C56" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="D56" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E56" t="s">
         <v>108</v>
       </c>
       <c r="F56" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="G56" t="s">
-        <v>105</v>
-      </c>
-      <c r="H56" t="s">
-        <v>108</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="H56"/>
       <c r="I56" t="n">
-        <v>12</v>
+        <v>61</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B57" t="s">
         <v>10</v>
       </c>
       <c r="C57" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="D57" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E57" t="s">
         <v>109</v>
       </c>
       <c r="F57" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="G57" t="s">
-        <v>105</v>
-      </c>
-      <c r="H57" t="s">
-        <v>110</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="H57"/>
       <c r="I57" t="n">
-        <v>11</v>
+        <v>63</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B58" t="s">
         <v>10</v>
       </c>
       <c r="C58" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="D58" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E58" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F58" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="G58" t="s">
-        <v>105</v>
-      </c>
-      <c r="H58" t="s">
-        <v>112</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="H58"/>
       <c r="I58" t="n">
-        <v>8</v>
+        <v>55</v>
       </c>
     </row>
     <row r="59">
@@ -3063,25 +3108,25 @@
         <v>10</v>
       </c>
       <c r="C59" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="D59" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E59" t="s">
-        <v>13</v>
+        <v>111</v>
       </c>
       <c r="F59" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="G59" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="H59" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I59" t="n">
-        <v>6</v>
+        <v>59</v>
       </c>
     </row>
     <row r="60">
@@ -3092,25 +3137,25 @@
         <v>10</v>
       </c>
       <c r="C60" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="D60" t="s">
         <v>113</v>
       </c>
       <c r="E60" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F60" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="G60" t="s">
         <v>113</v>
       </c>
       <c r="H60" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I60" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="61">
@@ -3121,25 +3166,25 @@
         <v>10</v>
       </c>
       <c r="C61" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="D61" t="s">
         <v>113</v>
       </c>
       <c r="E61" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F61" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="G61" t="s">
         <v>113</v>
       </c>
       <c r="H61" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I61" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62">
@@ -3150,52 +3195,54 @@
         <v>10</v>
       </c>
       <c r="C62" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="D62" t="s">
         <v>113</v>
       </c>
       <c r="E62" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F62" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="G62" t="s">
         <v>113</v>
       </c>
       <c r="H62" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I62" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B63" t="s">
         <v>10</v>
       </c>
       <c r="C63" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="D63" t="s">
         <v>113</v>
       </c>
       <c r="E63" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F63" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="G63" t="s">
         <v>113</v>
       </c>
-      <c r="H63"/>
+      <c r="H63" t="s">
+        <v>120</v>
+      </c>
       <c r="I63" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="64">
@@ -3206,25 +3253,25 @@
         <v>10</v>
       </c>
       <c r="C64" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="D64" t="s">
+        <v>121</v>
+      </c>
+      <c r="E64" t="s">
+        <v>13</v>
+      </c>
+      <c r="F64" t="s">
+        <v>67</v>
+      </c>
+      <c r="G64" t="s">
+        <v>121</v>
+      </c>
+      <c r="H64" t="s">
         <v>122</v>
       </c>
-      <c r="E64" t="s">
-        <v>123</v>
-      </c>
-      <c r="F64" t="s">
-        <v>11</v>
-      </c>
-      <c r="G64" t="s">
-        <v>122</v>
-      </c>
-      <c r="H64" t="s">
-        <v>124</v>
-      </c>
       <c r="I64" t="n">
-        <v>39</v>
+        <v>6</v>
       </c>
     </row>
     <row r="65">
@@ -3235,25 +3282,25 @@
         <v>10</v>
       </c>
       <c r="C65" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="D65" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E65" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F65" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="G65" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H65" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I65" t="n">
-        <v>38</v>
+        <v>8</v>
       </c>
     </row>
     <row r="66">
@@ -3264,25 +3311,25 @@
         <v>10</v>
       </c>
       <c r="C66" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="D66" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E66" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F66" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="G66" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H66" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I66" t="n">
-        <v>36</v>
+        <v>7</v>
       </c>
     </row>
     <row r="67">
@@ -3293,25 +3340,25 @@
         <v>10</v>
       </c>
       <c r="C67" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="D67" t="s">
+        <v>121</v>
+      </c>
+      <c r="E67" t="s">
+        <v>127</v>
+      </c>
+      <c r="F67" t="s">
+        <v>67</v>
+      </c>
+      <c r="G67" t="s">
+        <v>121</v>
+      </c>
+      <c r="H67" t="s">
         <v>128</v>
       </c>
-      <c r="E67" t="s">
-        <v>129</v>
-      </c>
-      <c r="F67" t="s">
-        <v>40</v>
-      </c>
-      <c r="G67" t="s">
-        <v>128</v>
-      </c>
-      <c r="H67" t="s">
-        <v>130</v>
-      </c>
       <c r="I67" t="n">
-        <v>40</v>
+        <v>9</v>
       </c>
     </row>
     <row r="68">
@@ -3322,23 +3369,23 @@
         <v>10</v>
       </c>
       <c r="C68" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="D68" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="E68" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F68" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="G68" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="H68"/>
       <c r="I68" t="n">
-        <v>41</v>
+        <v>10</v>
       </c>
     </row>
     <row r="69">
@@ -3349,79 +3396,83 @@
         <v>10</v>
       </c>
       <c r="C69" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="D69" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E69" t="s">
+        <v>131</v>
+      </c>
+      <c r="F69" t="s">
+        <v>11</v>
+      </c>
+      <c r="G69" t="s">
+        <v>130</v>
+      </c>
+      <c r="H69" t="s">
         <v>132</v>
       </c>
-      <c r="F69" t="s">
-        <v>40</v>
-      </c>
-      <c r="G69" t="s">
-        <v>128</v>
-      </c>
-      <c r="H69" t="s">
-        <v>133</v>
-      </c>
       <c r="I69" t="n">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B70" t="s">
         <v>10</v>
       </c>
       <c r="C70" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="D70" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E70" t="s">
+        <v>133</v>
+      </c>
+      <c r="F70" t="s">
+        <v>11</v>
+      </c>
+      <c r="G70" t="s">
+        <v>130</v>
+      </c>
+      <c r="H70" t="s">
         <v>134</v>
       </c>
-      <c r="F70" t="s">
-        <v>40</v>
-      </c>
-      <c r="G70" t="s">
-        <v>128</v>
-      </c>
-      <c r="H70"/>
       <c r="I70" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B71" t="s">
         <v>10</v>
       </c>
       <c r="C71" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="D71" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E71" t="s">
+        <v>130</v>
+      </c>
+      <c r="F71" t="s">
+        <v>11</v>
+      </c>
+      <c r="G71" t="s">
+        <v>130</v>
+      </c>
+      <c r="H71" t="s">
         <v>135</v>
       </c>
-      <c r="F71" t="s">
-        <v>40</v>
-      </c>
-      <c r="G71" t="s">
-        <v>128</v>
-      </c>
-      <c r="H71"/>
       <c r="I71" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="72">
@@ -3432,7 +3483,7 @@
         <v>10</v>
       </c>
       <c r="C72" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D72" t="s">
         <v>136</v>
@@ -3441,266 +3492,296 @@
         <v>137</v>
       </c>
       <c r="F72" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G72" t="s">
+        <v>136</v>
+      </c>
+      <c r="H72" t="s">
         <v>138</v>
       </c>
-      <c r="H72" t="s">
-        <v>139</v>
-      </c>
       <c r="I72" t="n">
-        <v>9</v>
+        <v>40</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B73" t="s">
         <v>10</v>
       </c>
       <c r="C73" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D73" t="s">
         <v>136</v>
       </c>
       <c r="E73" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F73" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G73" t="s">
-        <v>138</v>
-      </c>
-      <c r="H73" t="s">
-        <v>141</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="H73"/>
       <c r="I73" t="n">
-        <v>15</v>
+        <v>41</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B74" t="s">
         <v>10</v>
       </c>
       <c r="C74" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D74" t="s">
         <v>136</v>
       </c>
       <c r="E74" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F74" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G74" t="s">
-        <v>138</v>
-      </c>
-      <c r="H74"/>
+        <v>136</v>
+      </c>
+      <c r="H74" t="s">
+        <v>141</v>
+      </c>
       <c r="I74" t="n">
-        <v>7</v>
+        <v>43</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B75" t="s">
         <v>10</v>
       </c>
       <c r="C75" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D75" t="s">
         <v>136</v>
       </c>
       <c r="E75" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F75" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G75" t="s">
-        <v>138</v>
-      </c>
-      <c r="H75" t="s">
-        <v>144</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="H75"/>
       <c r="I75" t="n">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B76" t="s">
         <v>10</v>
       </c>
       <c r="C76" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D76" t="s">
         <v>136</v>
       </c>
       <c r="E76" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F76" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G76" t="s">
-        <v>138</v>
-      </c>
-      <c r="H76" t="s">
-        <v>146</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="H76"/>
       <c r="I76" t="n">
-        <v>11</v>
+        <v>35</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="B77" t="s">
         <v>10</v>
       </c>
       <c r="C77" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D77" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="E77" t="s">
-        <v>147</v>
-      </c>
-      <c r="F77"/>
-      <c r="G77"/>
-      <c r="H77"/>
+        <v>145</v>
+      </c>
+      <c r="F77" t="s">
+        <v>50</v>
+      </c>
+      <c r="G77" t="s">
+        <v>144</v>
+      </c>
+      <c r="H77" t="s">
+        <v>146</v>
+      </c>
       <c r="I77" t="n">
-        <v>32</v>
+        <v>9</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="B78" t="s">
         <v>10</v>
       </c>
       <c r="C78" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D78" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="E78" t="s">
+        <v>147</v>
+      </c>
+      <c r="F78" t="s">
+        <v>50</v>
+      </c>
+      <c r="G78" t="s">
+        <v>144</v>
+      </c>
+      <c r="H78" t="s">
         <v>148</v>
       </c>
-      <c r="F78"/>
-      <c r="G78"/>
-      <c r="H78"/>
       <c r="I78" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="B79" t="s">
         <v>10</v>
       </c>
       <c r="C79" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D79" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="E79" t="s">
         <v>149</v>
       </c>
-      <c r="F79"/>
-      <c r="G79"/>
+      <c r="F79" t="s">
+        <v>50</v>
+      </c>
+      <c r="G79" t="s">
+        <v>144</v>
+      </c>
       <c r="H79"/>
       <c r="I79" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="B80" t="s">
         <v>10</v>
       </c>
       <c r="C80" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D80" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="E80" t="s">
         <v>150</v>
       </c>
-      <c r="F80"/>
-      <c r="G80"/>
-      <c r="H80"/>
+      <c r="F80" t="s">
+        <v>50</v>
+      </c>
+      <c r="G80" t="s">
+        <v>144</v>
+      </c>
+      <c r="H80" t="s">
+        <v>151</v>
+      </c>
       <c r="I80" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="B81" t="s">
         <v>10</v>
       </c>
       <c r="C81" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D81" t="s">
-        <v>138</v>
-      </c>
-      <c r="E81"/>
-      <c r="F81"/>
-      <c r="G81"/>
+        <v>144</v>
+      </c>
+      <c r="E81" t="s">
+        <v>152</v>
+      </c>
+      <c r="F81" t="s">
+        <v>50</v>
+      </c>
+      <c r="G81" t="s">
+        <v>144</v>
+      </c>
       <c r="H81"/>
       <c r="I81" t="n">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="B82" t="s">
         <v>10</v>
       </c>
       <c r="C82" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D82" t="s">
-        <v>151</v>
-      </c>
-      <c r="E82"/>
+        <v>144</v>
+      </c>
+      <c r="E82" t="s">
+        <v>153</v>
+      </c>
       <c r="F82" t="s">
-        <v>47</v>
-      </c>
-      <c r="G82"/>
-      <c r="H82"/>
+        <v>50</v>
+      </c>
+      <c r="G82" t="s">
+        <v>144</v>
+      </c>
+      <c r="H82" t="s">
+        <v>154</v>
+      </c>
       <c r="I82" t="n">
-        <v>87</v>
+        <v>29</v>
       </c>
     </row>
     <row r="83">
@@ -3711,48 +3792,50 @@
         <v>10</v>
       </c>
       <c r="C83" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="D83" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="E83" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F83" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="G83" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="H83"/>
       <c r="I83" t="n">
-        <v>29</v>
+        <v>13</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B84" t="s">
         <v>10</v>
       </c>
       <c r="C84" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="D84" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="E84" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F84" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="G84" t="s">
-        <v>152</v>
-      </c>
-      <c r="H84"/>
+        <v>144</v>
+      </c>
+      <c r="H84" t="s">
+        <v>157</v>
+      </c>
       <c r="I84" t="n">
         <v>30</v>
       </c>
@@ -3765,81 +3848,71 @@
         <v>10</v>
       </c>
       <c r="C85" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="D85" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="E85" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F85" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="G85" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="H85"/>
       <c r="I85" t="n">
-        <v>32</v>
+        <v>11</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B86" t="s">
         <v>10</v>
       </c>
       <c r="C86" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="D86" t="s">
-        <v>152</v>
-      </c>
-      <c r="E86" t="s">
-        <v>152</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="E86"/>
       <c r="F86" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="G86" t="s">
-        <v>152</v>
-      </c>
-      <c r="H86" t="s">
-        <v>156</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="H86"/>
       <c r="I86" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="B87" t="s">
         <v>10</v>
       </c>
       <c r="C87" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="D87" t="s">
-        <v>152</v>
-      </c>
-      <c r="E87" t="s">
-        <v>157</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="E87"/>
       <c r="F87" t="s">
-        <v>24</v>
-      </c>
-      <c r="G87" t="s">
-        <v>152</v>
-      </c>
-      <c r="H87" t="s">
-        <v>158</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G87"/>
+      <c r="H87"/>
       <c r="I87" t="n">
-        <v>31</v>
+        <v>87</v>
       </c>
     </row>
     <row r="88">
@@ -3853,78 +3926,74 @@
         <v>24</v>
       </c>
       <c r="D88" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="E88" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F88" t="s">
         <v>24</v>
       </c>
       <c r="G88" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="H88"/>
       <c r="I88" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B89" t="s">
         <v>10</v>
       </c>
       <c r="C89" t="s">
+        <v>24</v>
+      </c>
+      <c r="D89" t="s">
         <v>160</v>
       </c>
-      <c r="D89" t="s">
-        <v>21</v>
-      </c>
       <c r="E89" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F89" t="s">
-        <v>162</v>
+        <v>24</v>
       </c>
       <c r="G89" t="s">
-        <v>21</v>
-      </c>
-      <c r="H89" t="s">
-        <v>163</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="H89"/>
       <c r="I89" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B90" t="s">
         <v>10</v>
       </c>
       <c r="C90" t="s">
+        <v>24</v>
+      </c>
+      <c r="D90" t="s">
         <v>160</v>
       </c>
-      <c r="D90" t="s">
-        <v>21</v>
-      </c>
       <c r="E90" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F90" t="s">
-        <v>162</v>
+        <v>24</v>
       </c>
       <c r="G90" t="s">
-        <v>21</v>
-      </c>
-      <c r="H90" t="s">
-        <v>165</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="H90"/>
       <c r="I90" t="n">
-        <v>49</v>
+        <v>32</v>
       </c>
     </row>
     <row r="91">
@@ -3935,81 +4004,81 @@
         <v>10</v>
       </c>
       <c r="C91" t="s">
+        <v>24</v>
+      </c>
+      <c r="D91" t="s">
         <v>160</v>
       </c>
-      <c r="D91" t="s">
-        <v>21</v>
-      </c>
       <c r="E91" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="F91" t="s">
-        <v>162</v>
+        <v>24</v>
       </c>
       <c r="G91" t="s">
-        <v>21</v>
+        <v>160</v>
       </c>
       <c r="H91" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="I91" t="n">
-        <v>54</v>
+        <v>27</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B92" t="s">
         <v>10</v>
       </c>
       <c r="C92" t="s">
+        <v>24</v>
+      </c>
+      <c r="D92" t="s">
         <v>160</v>
       </c>
-      <c r="D92" t="s">
-        <v>21</v>
-      </c>
       <c r="E92" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F92" t="s">
-        <v>162</v>
+        <v>24</v>
       </c>
       <c r="G92" t="s">
-        <v>21</v>
-      </c>
-      <c r="H92"/>
+        <v>160</v>
+      </c>
+      <c r="H92" t="s">
+        <v>166</v>
+      </c>
       <c r="I92" t="n">
-        <v>46</v>
+        <v>31</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B93" t="s">
         <v>10</v>
       </c>
       <c r="C93" t="s">
+        <v>24</v>
+      </c>
+      <c r="D93" t="s">
         <v>160</v>
       </c>
-      <c r="D93" t="s">
-        <v>21</v>
-      </c>
       <c r="E93" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F93" t="s">
-        <v>162</v>
+        <v>24</v>
       </c>
       <c r="G93" t="s">
-        <v>21</v>
-      </c>
-      <c r="H93" t="s">
-        <v>169</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="H93"/>
       <c r="I93" t="n">
-        <v>44</v>
+        <v>28</v>
       </c>
     </row>
     <row r="94">
@@ -4020,25 +4089,25 @@
         <v>10</v>
       </c>
       <c r="C94" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="D94" t="s">
         <v>21</v>
       </c>
       <c r="E94" t="s">
+        <v>169</v>
+      </c>
+      <c r="F94" t="s">
         <v>170</v>
-      </c>
-      <c r="F94" t="s">
-        <v>162</v>
       </c>
       <c r="G94" t="s">
         <v>21</v>
       </c>
       <c r="H94" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I94" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="95">
@@ -4049,25 +4118,25 @@
         <v>10</v>
       </c>
       <c r="C95" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="D95" t="s">
         <v>21</v>
       </c>
       <c r="E95" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F95" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="G95" t="s">
         <v>21</v>
       </c>
       <c r="H95" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="I95" t="n">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="96">
@@ -4078,81 +4147,81 @@
         <v>10</v>
       </c>
       <c r="C96" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="D96" t="s">
         <v>21</v>
       </c>
       <c r="E96" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F96" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="G96" t="s">
         <v>21</v>
       </c>
       <c r="H96" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="I96" t="n">
-        <v>40</v>
+        <v>54</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B97" t="s">
         <v>10</v>
       </c>
       <c r="C97" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="D97" t="s">
         <v>21</v>
       </c>
       <c r="E97" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F97" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="G97" t="s">
         <v>21</v>
       </c>
-      <c r="H97" t="s">
-        <v>175</v>
-      </c>
+      <c r="H97"/>
       <c r="I97" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B98" t="s">
         <v>10</v>
       </c>
       <c r="C98" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="D98" t="s">
         <v>21</v>
       </c>
       <c r="E98" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F98" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="G98" t="s">
         <v>21</v>
       </c>
-      <c r="H98"/>
+      <c r="H98" t="s">
+        <v>177</v>
+      </c>
       <c r="I98" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="99">
@@ -4163,25 +4232,25 @@
         <v>10</v>
       </c>
       <c r="C99" t="s">
-        <v>47</v>
+        <v>168</v>
       </c>
       <c r="D99" t="s">
-        <v>177</v>
+        <v>21</v>
       </c>
       <c r="E99" t="s">
         <v>178</v>
       </c>
       <c r="F99" t="s">
-        <v>47</v>
+        <v>170</v>
       </c>
       <c r="G99" t="s">
-        <v>177</v>
+        <v>21</v>
       </c>
       <c r="H99" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I99" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="100">
@@ -4192,420 +4261,430 @@
         <v>10</v>
       </c>
       <c r="C100" t="s">
-        <v>47</v>
+        <v>168</v>
       </c>
       <c r="D100" t="s">
-        <v>177</v>
+        <v>21</v>
       </c>
       <c r="E100" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F100" t="s">
-        <v>47</v>
+        <v>170</v>
       </c>
       <c r="G100" t="s">
-        <v>177</v>
+        <v>21</v>
       </c>
       <c r="H100" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="I100" t="n">
-        <v>40</v>
+        <v>52</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B101" t="s">
         <v>10</v>
       </c>
       <c r="C101" t="s">
-        <v>47</v>
+        <v>168</v>
       </c>
       <c r="D101" t="s">
-        <v>177</v>
-      </c>
-      <c r="E101"/>
+        <v>21</v>
+      </c>
+      <c r="E101" t="s">
+        <v>180</v>
+      </c>
       <c r="F101" t="s">
-        <v>47</v>
+        <v>170</v>
       </c>
       <c r="G101" t="s">
-        <v>177</v>
-      </c>
-      <c r="H101"/>
+        <v>21</v>
+      </c>
+      <c r="H101" t="s">
+        <v>181</v>
+      </c>
       <c r="I101" t="n">
-        <v>84</v>
+        <v>40</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="B102" t="s">
         <v>10</v>
       </c>
       <c r="C102" t="s">
-        <v>47</v>
+        <v>168</v>
       </c>
       <c r="D102" t="s">
+        <v>21</v>
+      </c>
+      <c r="E102" t="s">
         <v>182</v>
       </c>
-      <c r="E102" t="s">
+      <c r="F102" t="s">
+        <v>170</v>
+      </c>
+      <c r="G102" t="s">
+        <v>21</v>
+      </c>
+      <c r="H102" t="s">
         <v>183</v>
       </c>
-      <c r="F102" t="s">
-        <v>47</v>
-      </c>
-      <c r="G102"/>
-      <c r="H102"/>
       <c r="I102" t="n">
-        <v>42</v>
+        <v>50</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="B103" t="s">
         <v>10</v>
       </c>
       <c r="C103" t="s">
-        <v>47</v>
+        <v>168</v>
       </c>
       <c r="D103" t="s">
-        <v>182</v>
+        <v>21</v>
       </c>
       <c r="E103" t="s">
         <v>184</v>
       </c>
       <c r="F103" t="s">
-        <v>47</v>
-      </c>
-      <c r="G103"/>
+        <v>170</v>
+      </c>
+      <c r="G103" t="s">
+        <v>21</v>
+      </c>
       <c r="H103"/>
       <c r="I103" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="B104" t="s">
         <v>10</v>
       </c>
       <c r="C104" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D104" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="E104" t="s">
+        <v>186</v>
+      </c>
+      <c r="F104" t="s">
+        <v>50</v>
+      </c>
+      <c r="G104" t="s">
         <v>185</v>
       </c>
-      <c r="F104" t="s">
-        <v>47</v>
-      </c>
-      <c r="G104"/>
-      <c r="H104"/>
+      <c r="H104" t="s">
+        <v>187</v>
+      </c>
       <c r="I104" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="B105" t="s">
         <v>10</v>
       </c>
       <c r="C105" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D105" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="E105" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F105" t="s">
-        <v>47</v>
-      </c>
-      <c r="G105"/>
-      <c r="H105"/>
+        <v>50</v>
+      </c>
+      <c r="G105" t="s">
+        <v>185</v>
+      </c>
+      <c r="H105" t="s">
+        <v>189</v>
+      </c>
       <c r="I105" t="n">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="B106" t="s">
         <v>10</v>
       </c>
       <c r="C106" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D106" t="s">
-        <v>182</v>
-      </c>
-      <c r="E106" t="s">
-        <v>187</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="E106"/>
       <c r="F106" t="s">
-        <v>47</v>
-      </c>
-      <c r="G106"/>
+        <v>50</v>
+      </c>
+      <c r="G106" t="s">
+        <v>185</v>
+      </c>
       <c r="H106"/>
       <c r="I106" t="n">
-        <v>45</v>
+        <v>84</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="B107" t="s">
         <v>10</v>
       </c>
       <c r="C107" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="D107" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E107" t="s">
-        <v>13</v>
+        <v>191</v>
       </c>
       <c r="F107" t="s">
-        <v>61</v>
-      </c>
-      <c r="G107" t="s">
-        <v>188</v>
-      </c>
-      <c r="H107" t="s">
-        <v>189</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G107"/>
+      <c r="H107"/>
       <c r="I107" t="n">
-        <v>18</v>
+        <v>42</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="B108" t="s">
         <v>10</v>
       </c>
       <c r="C108" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="D108" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E108" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F108" t="s">
-        <v>61</v>
-      </c>
-      <c r="G108" t="s">
-        <v>188</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G108"/>
       <c r="H108"/>
       <c r="I108" t="n">
-        <v>16</v>
+        <v>49</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="B109" t="s">
         <v>10</v>
       </c>
       <c r="C109" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="D109" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E109" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="F109" t="s">
-        <v>61</v>
-      </c>
-      <c r="G109" t="s">
-        <v>188</v>
-      </c>
-      <c r="H109" t="s">
-        <v>192</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G109"/>
+      <c r="H109"/>
       <c r="I109" t="n">
-        <v>17</v>
+        <v>44</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="B110" t="s">
         <v>10</v>
       </c>
       <c r="C110" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D110" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E110" t="s">
         <v>194</v>
       </c>
       <c r="F110" t="s">
-        <v>47</v>
-      </c>
-      <c r="G110" t="s">
-        <v>195</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G110"/>
       <c r="H110"/>
       <c r="I110" t="n">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="B111" t="s">
         <v>10</v>
       </c>
       <c r="C111" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D111" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E111" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F111" t="s">
-        <v>47</v>
-      </c>
-      <c r="G111" t="s">
-        <v>195</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G111"/>
       <c r="H111"/>
       <c r="I111" t="n">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B112" t="s">
         <v>10</v>
       </c>
       <c r="C112" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="D112" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="E112" t="s">
+        <v>13</v>
+      </c>
+      <c r="F112" t="s">
+        <v>67</v>
+      </c>
+      <c r="G112" t="s">
+        <v>196</v>
+      </c>
+      <c r="H112" t="s">
         <v>197</v>
       </c>
-      <c r="F112" t="s">
-        <v>47</v>
-      </c>
-      <c r="G112" t="s">
-        <v>195</v>
-      </c>
-      <c r="H112"/>
       <c r="I112" t="n">
-        <v>52</v>
+        <v>18</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="B113" t="s">
         <v>10</v>
       </c>
       <c r="C113" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="D113" t="s">
+        <v>196</v>
+      </c>
+      <c r="E113" t="s">
         <v>198</v>
       </c>
-      <c r="E113"/>
       <c r="F113" t="s">
-        <v>47</v>
-      </c>
-      <c r="G113"/>
+        <v>67</v>
+      </c>
+      <c r="G113" t="s">
+        <v>196</v>
+      </c>
       <c r="H113"/>
       <c r="I113" t="n">
-        <v>89</v>
+        <v>16</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B114" t="s">
         <v>10</v>
       </c>
       <c r="C114" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="D114" t="s">
+        <v>196</v>
+      </c>
+      <c r="E114" t="s">
         <v>199</v>
       </c>
-      <c r="E114" t="s">
+      <c r="F114" t="s">
+        <v>67</v>
+      </c>
+      <c r="G114" t="s">
+        <v>196</v>
+      </c>
+      <c r="H114" t="s">
         <v>200</v>
       </c>
-      <c r="F114" t="s">
-        <v>47</v>
-      </c>
-      <c r="G114" t="s">
-        <v>199</v>
-      </c>
-      <c r="H114"/>
       <c r="I114" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B115" t="s">
         <v>10</v>
       </c>
       <c r="C115" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D115" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E115" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F115" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G115" t="s">
-        <v>199</v>
-      </c>
-      <c r="H115" t="s">
-        <v>202</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="H115"/>
       <c r="I115" t="n">
-        <v>36</v>
+        <v>51</v>
       </c>
     </row>
     <row r="116">
@@ -4616,275 +4695,293 @@
         <v>10</v>
       </c>
       <c r="C116" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D116" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E116" t="s">
+        <v>204</v>
+      </c>
+      <c r="F116" t="s">
+        <v>50</v>
+      </c>
+      <c r="G116" t="s">
         <v>203</v>
-      </c>
-      <c r="F116" t="s">
-        <v>47</v>
-      </c>
-      <c r="G116" t="s">
-        <v>199</v>
       </c>
       <c r="H116"/>
       <c r="I116" t="n">
-        <v>34</v>
+        <v>54</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B117" t="s">
         <v>10</v>
       </c>
       <c r="C117" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D117" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E117" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F117" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G117" t="s">
-        <v>199</v>
-      </c>
-      <c r="H117" t="s">
-        <v>205</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="H117"/>
       <c r="I117" t="n">
-        <v>32</v>
+        <v>52</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B118" t="s">
         <v>10</v>
       </c>
       <c r="C118" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D118" t="s">
         <v>206</v>
       </c>
-      <c r="E118" t="s">
-        <v>207</v>
-      </c>
-      <c r="F118"/>
+      <c r="E118"/>
+      <c r="F118" t="s">
+        <v>50</v>
+      </c>
       <c r="G118"/>
       <c r="H118"/>
       <c r="I118" t="n">
-        <v>17</v>
+        <v>89</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="B119" t="s">
         <v>10</v>
       </c>
       <c r="C119" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D119" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E119" t="s">
         <v>208</v>
       </c>
-      <c r="F119"/>
-      <c r="G119"/>
+      <c r="F119" t="s">
+        <v>50</v>
+      </c>
+      <c r="G119" t="s">
+        <v>207</v>
+      </c>
       <c r="H119"/>
       <c r="I119" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="B120" t="s">
         <v>10</v>
       </c>
       <c r="C120" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D120" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E120" t="s">
         <v>209</v>
       </c>
-      <c r="F120"/>
-      <c r="G120"/>
-      <c r="H120"/>
+      <c r="F120" t="s">
+        <v>50</v>
+      </c>
+      <c r="G120" t="s">
+        <v>207</v>
+      </c>
+      <c r="H120" t="s">
+        <v>210</v>
+      </c>
       <c r="I120" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="B121" t="s">
         <v>10</v>
       </c>
       <c r="C121" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D121" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E121" t="s">
-        <v>210</v>
-      </c>
-      <c r="F121"/>
-      <c r="G121"/>
+        <v>211</v>
+      </c>
+      <c r="F121" t="s">
+        <v>50</v>
+      </c>
+      <c r="G121" t="s">
+        <v>207</v>
+      </c>
       <c r="H121"/>
       <c r="I121" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="B122" t="s">
         <v>10</v>
       </c>
       <c r="C122" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D122" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E122" t="s">
-        <v>211</v>
-      </c>
-      <c r="F122"/>
-      <c r="G122"/>
+        <v>212</v>
+      </c>
+      <c r="F122" t="s">
+        <v>50</v>
+      </c>
+      <c r="G122" t="s">
+        <v>207</v>
+      </c>
       <c r="H122"/>
       <c r="I122" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="B123" t="s">
         <v>10</v>
       </c>
       <c r="C123" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D123" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E123" t="s">
-        <v>204</v>
-      </c>
-      <c r="F123"/>
-      <c r="G123"/>
+        <v>213</v>
+      </c>
+      <c r="F123" t="s">
+        <v>50</v>
+      </c>
+      <c r="G123" t="s">
+        <v>207</v>
+      </c>
       <c r="H123"/>
       <c r="I123" t="n">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B124" t="s">
         <v>10</v>
       </c>
       <c r="C124" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="D124" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="E124" t="s">
-        <v>13</v>
+        <v>214</v>
       </c>
       <c r="F124" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="G124" t="s">
-        <v>212</v>
-      </c>
-      <c r="H124"/>
+        <v>207</v>
+      </c>
+      <c r="H124" t="s">
+        <v>215</v>
+      </c>
       <c r="I124" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B125" t="s">
         <v>10</v>
       </c>
       <c r="C125" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="D125" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="E125" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="F125" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="G125" t="s">
-        <v>212</v>
-      </c>
-      <c r="H125" t="s">
-        <v>214</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="H125"/>
       <c r="I125" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B126" t="s">
         <v>10</v>
       </c>
       <c r="C126" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="D126" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="E126" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="F126" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="G126" t="s">
-        <v>212</v>
-      </c>
-      <c r="H126" t="s">
-        <v>215</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="H126"/>
       <c r="I126" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="127">
@@ -4895,54 +4992,52 @@
         <v>10</v>
       </c>
       <c r="C127" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="D127" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="E127" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F127" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="G127" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="H127" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="I127" t="n">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B128" t="s">
         <v>10</v>
       </c>
       <c r="C128" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="D128" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E128" t="s">
-        <v>219</v>
+        <v>13</v>
       </c>
       <c r="F128" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="G128" t="s">
-        <v>218</v>
-      </c>
-      <c r="H128" t="s">
         <v>220</v>
       </c>
+      <c r="H128"/>
       <c r="I128" t="n">
-        <v>67</v>
+        <v>24</v>
       </c>
     </row>
     <row r="129">
@@ -4953,25 +5048,25 @@
         <v>10</v>
       </c>
       <c r="C129" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="D129" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E129" t="s">
         <v>221</v>
       </c>
       <c r="F129" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="G129" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="H129" t="s">
         <v>222</v>
       </c>
       <c r="I129" t="n">
-        <v>65</v>
+        <v>25</v>
       </c>
     </row>
     <row r="130">
@@ -4982,52 +5077,54 @@
         <v>10</v>
       </c>
       <c r="C130" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="D130" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E130" t="s">
         <v>223</v>
       </c>
       <c r="F130" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="G130" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="H130" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I130" t="n">
-        <v>68</v>
+        <v>26</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B131" t="s">
         <v>10</v>
       </c>
       <c r="C131" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="D131" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E131" t="s">
+        <v>224</v>
+      </c>
+      <c r="F131" t="s">
+        <v>67</v>
+      </c>
+      <c r="G131" t="s">
+        <v>220</v>
+      </c>
+      <c r="H131" t="s">
         <v>225</v>
       </c>
-      <c r="F131" t="s">
-        <v>47</v>
-      </c>
-      <c r="G131" t="s">
-        <v>218</v>
-      </c>
-      <c r="H131"/>
       <c r="I131" t="n">
-        <v>72</v>
+        <v>27</v>
       </c>
     </row>
     <row r="132">
@@ -5038,25 +5135,25 @@
         <v>10</v>
       </c>
       <c r="C132" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D132" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="E132" t="s">
+        <v>227</v>
+      </c>
+      <c r="F132" t="s">
+        <v>50</v>
+      </c>
+      <c r="G132" t="s">
         <v>226</v>
       </c>
-      <c r="F132" t="s">
-        <v>47</v>
-      </c>
-      <c r="G132" t="s">
-        <v>218</v>
-      </c>
       <c r="H132" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="I132" t="n">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="133">
@@ -5067,25 +5164,25 @@
         <v>10</v>
       </c>
       <c r="C133" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D133" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="E133" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F133" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G133" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="H133" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="I133" t="n">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="134">
@@ -5096,184 +5193,198 @@
         <v>10</v>
       </c>
       <c r="C134" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D134" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="E134" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F134" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G134" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="H134" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="I134" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B135" t="s">
         <v>10</v>
       </c>
       <c r="C135" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D135" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="E135" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F135" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G135" t="s">
-        <v>218</v>
-      </c>
-      <c r="H135" t="s">
-        <v>233</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="H135"/>
       <c r="I135" t="n">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B136" t="s">
         <v>10</v>
       </c>
       <c r="C136" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D136" t="s">
-        <v>218</v>
-      </c>
-      <c r="E136"/>
+        <v>226</v>
+      </c>
+      <c r="E136" t="s">
+        <v>234</v>
+      </c>
       <c r="F136" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G136" t="s">
-        <v>218</v>
-      </c>
-      <c r="H136"/>
+        <v>226</v>
+      </c>
+      <c r="H136" t="s">
+        <v>235</v>
+      </c>
       <c r="I136" t="n">
-        <v>64</v>
+        <v>70</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="B137" t="s">
         <v>10</v>
       </c>
       <c r="C137" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="D137" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="E137" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F137" t="s">
-        <v>11</v>
-      </c>
-      <c r="G137"/>
-      <c r="H137"/>
+        <v>50</v>
+      </c>
+      <c r="G137" t="s">
+        <v>226</v>
+      </c>
+      <c r="H137" t="s">
+        <v>237</v>
+      </c>
       <c r="I137" t="n">
-        <v>3</v>
+        <v>73</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="B138" t="s">
         <v>10</v>
       </c>
       <c r="C138" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D138" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="E138" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="F138" t="s">
-        <v>40</v>
-      </c>
-      <c r="G138"/>
-      <c r="H138"/>
+        <v>50</v>
+      </c>
+      <c r="G138" t="s">
+        <v>226</v>
+      </c>
+      <c r="H138" t="s">
+        <v>239</v>
+      </c>
       <c r="I138" t="n">
-        <v>11</v>
+        <v>69</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="B139" t="s">
         <v>10</v>
       </c>
       <c r="C139" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="D139" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="E139" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="F139" t="s">
-        <v>11</v>
-      </c>
-      <c r="G139"/>
-      <c r="H139"/>
+        <v>50</v>
+      </c>
+      <c r="G139" t="s">
+        <v>226</v>
+      </c>
+      <c r="H139" t="s">
+        <v>241</v>
+      </c>
       <c r="I139" t="n">
-        <v>5</v>
+        <v>66</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="B140" t="s">
         <v>10</v>
       </c>
       <c r="C140" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D140" t="s">
-        <v>234</v>
-      </c>
-      <c r="E140" t="s">
-        <v>238</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="E140"/>
       <c r="F140" t="s">
-        <v>40</v>
-      </c>
-      <c r="G140"/>
+        <v>50</v>
+      </c>
+      <c r="G140" t="s">
+        <v>226</v>
+      </c>
       <c r="H140"/>
       <c r="I140" t="n">
-        <v>15</v>
+        <v>64</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="B141" t="s">
         <v>10</v>
@@ -5282,23 +5393,25 @@
         <v>11</v>
       </c>
       <c r="D141" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="E141" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="F141" t="s">
         <v>11</v>
       </c>
-      <c r="G141"/>
+      <c r="G141" t="s">
+        <v>242</v>
+      </c>
       <c r="H141"/>
       <c r="I141" t="n">
-        <v>24</v>
+        <v>3</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="B142" t="s">
         <v>10</v>
@@ -5307,41 +5420,47 @@
         <v>40</v>
       </c>
       <c r="D142" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="E142" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="F142" t="s">
         <v>40</v>
       </c>
-      <c r="G142"/>
+      <c r="G142" t="s">
+        <v>242</v>
+      </c>
       <c r="H142"/>
       <c r="I142" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="B143" t="s">
         <v>10</v>
       </c>
       <c r="C143" t="s">
-        <v>160</v>
+        <v>11</v>
       </c>
       <c r="D143" t="s">
-        <v>241</v>
-      </c>
-      <c r="E143"/>
+        <v>242</v>
+      </c>
+      <c r="E143" t="s">
+        <v>245</v>
+      </c>
       <c r="F143" t="s">
-        <v>162</v>
-      </c>
-      <c r="G143"/>
+        <v>11</v>
+      </c>
+      <c r="G143" t="s">
+        <v>242</v>
+      </c>
       <c r="H143"/>
       <c r="I143" t="n">
-        <v>56</v>
+        <v>5</v>
       </c>
     </row>
     <row r="144">
@@ -5352,54 +5471,52 @@
         <v>10</v>
       </c>
       <c r="C144" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D144" t="s">
         <v>242</v>
       </c>
       <c r="E144" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="F144" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G144" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="H144" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="I144" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B145" t="s">
         <v>10</v>
       </c>
       <c r="C145" t="s">
-        <v>160</v>
+        <v>11</v>
       </c>
       <c r="D145" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="E145" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F145" t="s">
-        <v>162</v>
+        <v>11</v>
       </c>
       <c r="G145" t="s">
-        <v>246</v>
-      </c>
-      <c r="H145" t="s">
-        <v>248</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="H145"/>
       <c r="I145" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="146">
@@ -5410,81 +5527,77 @@
         <v>10</v>
       </c>
       <c r="C146" t="s">
-        <v>160</v>
+        <v>40</v>
       </c>
       <c r="D146" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="E146" t="s">
         <v>249</v>
       </c>
       <c r="F146" t="s">
-        <v>162</v>
+        <v>40</v>
       </c>
       <c r="G146" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="H146" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="I146" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="B147" t="s">
         <v>10</v>
       </c>
       <c r="C147" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="D147" t="s">
-        <v>246</v>
-      </c>
-      <c r="E147" t="s">
-        <v>250</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="E147"/>
       <c r="F147" t="s">
-        <v>162</v>
-      </c>
-      <c r="G147" t="s">
-        <v>246</v>
-      </c>
-      <c r="H147" t="s">
-        <v>250</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="G147"/>
+      <c r="H147"/>
       <c r="I147" t="n">
-        <v>32</v>
+        <v>56</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B148" t="s">
         <v>10</v>
       </c>
       <c r="C148" t="s">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="D148" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="E148" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F148" t="s">
-        <v>162</v>
+        <v>50</v>
       </c>
       <c r="G148" t="s">
-        <v>246</v>
-      </c>
-      <c r="H148"/>
+        <v>254</v>
+      </c>
+      <c r="H148" t="s">
+        <v>255</v>
+      </c>
       <c r="I148" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="149">
@@ -5495,25 +5608,25 @@
         <v>10</v>
       </c>
       <c r="C149" t="s">
-        <v>11</v>
+        <v>168</v>
       </c>
       <c r="D149" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="E149" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="F149" t="s">
-        <v>11</v>
+        <v>170</v>
       </c>
       <c r="G149" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="H149" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="I149" t="n">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="150">
@@ -5524,25 +5637,25 @@
         <v>10</v>
       </c>
       <c r="C150" t="s">
-        <v>11</v>
+        <v>168</v>
       </c>
       <c r="D150" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="E150" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="F150" t="s">
-        <v>11</v>
+        <v>170</v>
       </c>
       <c r="G150" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="H150" t="s">
-        <v>92</v>
+        <v>259</v>
       </c>
       <c r="I150" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
     </row>
     <row r="151">
@@ -5553,59 +5666,57 @@
         <v>10</v>
       </c>
       <c r="C151" t="s">
-        <v>11</v>
+        <v>168</v>
       </c>
       <c r="D151" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="E151" t="s">
+        <v>260</v>
+      </c>
+      <c r="F151" t="s">
+        <v>170</v>
+      </c>
+      <c r="G151" t="s">
         <v>256</v>
       </c>
-      <c r="F151" t="s">
-        <v>11</v>
-      </c>
-      <c r="G151" t="s">
-        <v>252</v>
-      </c>
       <c r="H151" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="I151" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B152" t="s">
         <v>10</v>
       </c>
       <c r="C152" t="s">
-        <v>11</v>
+        <v>168</v>
       </c>
       <c r="D152" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="E152" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="F152" t="s">
-        <v>11</v>
+        <v>170</v>
       </c>
       <c r="G152" t="s">
-        <v>252</v>
-      </c>
-      <c r="H152" t="s">
-        <v>259</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="H152"/>
       <c r="I152" t="n">
-        <v>43</v>
+        <v>24</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B153" t="s">
         <v>10</v>
@@ -5614,20 +5725,22 @@
         <v>11</v>
       </c>
       <c r="D153" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="E153" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F153" t="s">
         <v>11</v>
       </c>
       <c r="G153" t="s">
-        <v>252</v>
-      </c>
-      <c r="H153"/>
+        <v>262</v>
+      </c>
+      <c r="H153" t="s">
+        <v>264</v>
+      </c>
       <c r="I153" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="154">
@@ -5641,22 +5754,22 @@
         <v>11</v>
       </c>
       <c r="D154" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E154" t="s">
+        <v>265</v>
+      </c>
+      <c r="F154" t="s">
+        <v>11</v>
+      </c>
+      <c r="G154" t="s">
         <v>262</v>
       </c>
-      <c r="F154" t="s">
-        <v>11</v>
-      </c>
-      <c r="G154" t="s">
-        <v>263</v>
-      </c>
       <c r="H154" t="s">
-        <v>262</v>
+        <v>92</v>
       </c>
       <c r="I154" t="n">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="155">
@@ -5670,22 +5783,22 @@
         <v>11</v>
       </c>
       <c r="D155" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E155" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F155" t="s">
         <v>11</v>
       </c>
       <c r="G155" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H155" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="I155" t="n">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
     <row r="156">
@@ -5699,27 +5812,27 @@
         <v>11</v>
       </c>
       <c r="D156" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E156" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="F156" t="s">
         <v>11</v>
       </c>
       <c r="G156" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H156" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="I156" t="n">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B157" t="s">
         <v>10</v>
@@ -5728,22 +5841,20 @@
         <v>11</v>
       </c>
       <c r="D157" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E157" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="F157" t="s">
         <v>11</v>
       </c>
       <c r="G157" t="s">
-        <v>263</v>
-      </c>
-      <c r="H157" t="s">
-        <v>268</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="H157"/>
       <c r="I157" t="n">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="158">
@@ -5757,22 +5868,22 @@
         <v>11</v>
       </c>
       <c r="D158" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="E158" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="F158" t="s">
         <v>11</v>
       </c>
       <c r="G158" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="H158" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="I158" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="159">
@@ -5786,27 +5897,27 @@
         <v>11</v>
       </c>
       <c r="D159" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="E159" t="s">
-        <v>64</v>
+        <v>274</v>
       </c>
       <c r="F159" t="s">
         <v>11</v>
       </c>
       <c r="G159" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="H159" t="s">
-        <v>64</v>
+        <v>275</v>
       </c>
       <c r="I159" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B160" t="s">
         <v>10</v>
@@ -5815,20 +5926,22 @@
         <v>11</v>
       </c>
       <c r="D160" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E160" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="F160" t="s">
         <v>11</v>
       </c>
       <c r="G160" t="s">
-        <v>272</v>
-      </c>
-      <c r="H160"/>
+        <v>273</v>
+      </c>
+      <c r="H160" t="s">
+        <v>276</v>
+      </c>
       <c r="I160" t="n">
-        <v>59</v>
+        <v>32</v>
       </c>
     </row>
     <row r="161">
@@ -5842,22 +5955,22 @@
         <v>11</v>
       </c>
       <c r="D161" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E161" t="s">
+        <v>277</v>
+      </c>
+      <c r="F161" t="s">
+        <v>11</v>
+      </c>
+      <c r="G161" t="s">
         <v>273</v>
       </c>
-      <c r="F161" t="s">
-        <v>11</v>
-      </c>
-      <c r="G161" t="s">
-        <v>272</v>
-      </c>
       <c r="H161" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="I161" t="n">
-        <v>62</v>
+        <v>35</v>
       </c>
     </row>
     <row r="162">
@@ -5871,27 +5984,27 @@
         <v>11</v>
       </c>
       <c r="D162" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E162" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="F162" t="s">
         <v>11</v>
       </c>
       <c r="G162" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H162" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="I162" t="n">
-        <v>57</v>
+        <v>33</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B163" t="s">
         <v>10</v>
@@ -5900,20 +6013,22 @@
         <v>11</v>
       </c>
       <c r="D163" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E163" t="s">
-        <v>276</v>
+        <v>70</v>
       </c>
       <c r="F163" t="s">
         <v>11</v>
       </c>
       <c r="G163" t="s">
-        <v>272</v>
-      </c>
-      <c r="H163"/>
+        <v>273</v>
+      </c>
+      <c r="H163" t="s">
+        <v>70</v>
+      </c>
       <c r="I163" t="n">
-        <v>61</v>
+        <v>30</v>
       </c>
     </row>
     <row r="164">
@@ -5927,89 +6042,105 @@
         <v>11</v>
       </c>
       <c r="D164" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="E164" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="F164" t="s">
         <v>11</v>
       </c>
       <c r="G164" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="H164"/>
       <c r="I164" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="B165" t="s">
         <v>10</v>
       </c>
       <c r="C165" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="D165" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E165" t="s">
-        <v>13</v>
-      </c>
-      <c r="F165"/>
-      <c r="G165"/>
-      <c r="H165"/>
+        <v>283</v>
+      </c>
+      <c r="F165" t="s">
+        <v>11</v>
+      </c>
+      <c r="G165" t="s">
+        <v>282</v>
+      </c>
+      <c r="H165" t="s">
+        <v>284</v>
+      </c>
       <c r="I165" t="n">
-        <v>1</v>
+        <v>62</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="B166" t="s">
         <v>10</v>
       </c>
       <c r="C166" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="D166" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E166" t="s">
-        <v>279</v>
-      </c>
-      <c r="F166"/>
-      <c r="G166"/>
-      <c r="H166"/>
+        <v>280</v>
+      </c>
+      <c r="F166" t="s">
+        <v>11</v>
+      </c>
+      <c r="G166" t="s">
+        <v>282</v>
+      </c>
+      <c r="H166" t="s">
+        <v>285</v>
+      </c>
       <c r="I166" t="n">
-        <v>3</v>
+        <v>57</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="B167" t="s">
         <v>10</v>
       </c>
       <c r="C167" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="D167" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E167" t="s">
-        <v>280</v>
-      </c>
-      <c r="F167"/>
-      <c r="G167"/>
+        <v>286</v>
+      </c>
+      <c r="F167" t="s">
+        <v>11</v>
+      </c>
+      <c r="G167" t="s">
+        <v>282</v>
+      </c>
       <c r="H167"/>
       <c r="I167" t="n">
-        <v>4</v>
+        <v>61</v>
       </c>
     </row>
     <row r="168">
@@ -6020,21 +6151,23 @@
         <v>10</v>
       </c>
       <c r="C168" t="s">
-        <v>160</v>
+        <v>11</v>
       </c>
       <c r="D168" t="s">
-        <v>281</v>
-      </c>
-      <c r="E168"/>
+        <v>280</v>
+      </c>
+      <c r="E168" t="s">
+        <v>287</v>
+      </c>
       <c r="F168" t="s">
-        <v>162</v>
+        <v>11</v>
       </c>
       <c r="G168" t="s">
         <v>282</v>
       </c>
       <c r="H168"/>
       <c r="I168" t="n">
-        <v>23</v>
+        <v>60</v>
       </c>
     </row>
     <row r="169">
@@ -6045,23 +6178,21 @@
         <v>10</v>
       </c>
       <c r="C169" t="s">
-        <v>47</v>
+        <v>168</v>
       </c>
       <c r="D169" t="s">
-        <v>283</v>
-      </c>
-      <c r="E169" t="s">
-        <v>284</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="E169"/>
       <c r="F169" t="s">
-        <v>47</v>
+        <v>170</v>
       </c>
       <c r="G169" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="H169"/>
       <c r="I169" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
     </row>
     <row r="170">
@@ -6072,23 +6203,23 @@
         <v>10</v>
       </c>
       <c r="C170" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D170" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="E170" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="F170" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G170" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="H170"/>
       <c r="I170" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171">
@@ -6099,68 +6230,76 @@
         <v>10</v>
       </c>
       <c r="C171" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D171" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="E171" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="F171" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G171" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="H171" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="I171" t="n">
-        <v>5</v>
+        <v>26</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="B172" t="s">
         <v>10</v>
       </c>
       <c r="C172" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D172" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="E172" t="s">
-        <v>289</v>
-      </c>
-      <c r="F172"/>
-      <c r="G172"/>
+        <v>294</v>
+      </c>
+      <c r="F172" t="s">
+        <v>50</v>
+      </c>
+      <c r="G172" t="s">
+        <v>290</v>
+      </c>
       <c r="H172"/>
       <c r="I172" t="n">
-        <v>26</v>
+        <v>3</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="B173" t="s">
         <v>10</v>
       </c>
       <c r="C173" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D173" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="E173" t="s">
+        <v>295</v>
+      </c>
+      <c r="F173" t="s">
+        <v>50</v>
+      </c>
+      <c r="G173" t="s">
         <v>290</v>
       </c>
-      <c r="F173"/>
-      <c r="G173"/>
       <c r="H173"/>
       <c r="I173" t="n">
         <v>27</v>
@@ -6168,104 +6307,110 @@
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="B174" t="s">
         <v>10</v>
       </c>
       <c r="C174" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D174" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="E174" t="s">
-        <v>291</v>
-      </c>
-      <c r="F174"/>
-      <c r="G174"/>
-      <c r="H174"/>
+        <v>296</v>
+      </c>
+      <c r="F174" t="s">
+        <v>50</v>
+      </c>
+      <c r="G174" t="s">
+        <v>290</v>
+      </c>
+      <c r="H174" t="s">
+        <v>297</v>
+      </c>
       <c r="I174" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="B175" t="s">
         <v>10</v>
       </c>
       <c r="C175" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D175" t="s">
-        <v>285</v>
-      </c>
-      <c r="E175"/>
-      <c r="F175"/>
-      <c r="G175"/>
+        <v>290</v>
+      </c>
+      <c r="E175" t="s">
+        <v>298</v>
+      </c>
+      <c r="F175" t="s">
+        <v>50</v>
+      </c>
+      <c r="G175" t="s">
+        <v>290</v>
+      </c>
       <c r="H175"/>
       <c r="I175" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B176" t="s">
         <v>10</v>
       </c>
       <c r="C176" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D176" t="s">
-        <v>292</v>
-      </c>
-      <c r="E176" t="s">
-        <v>293</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="E176"/>
       <c r="F176" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G176" t="s">
-        <v>292</v>
-      </c>
-      <c r="H176" t="s">
-        <v>118</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="H176"/>
       <c r="I176" t="n">
-        <v>60</v>
+        <v>24</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B177" t="s">
         <v>10</v>
       </c>
       <c r="C177" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D177" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="E177" t="s">
-        <v>279</v>
+        <v>13</v>
       </c>
       <c r="F177" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G177" t="s">
-        <v>292</v>
-      </c>
-      <c r="H177" t="s">
-        <v>294</v>
-      </c>
+        <v>299</v>
+      </c>
+      <c r="H177"/>
       <c r="I177" t="n">
-        <v>62</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178">
@@ -6276,25 +6421,25 @@
         <v>10</v>
       </c>
       <c r="C178" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D178" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="E178" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="F178" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G178" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="H178" t="s">
-        <v>296</v>
+        <v>126</v>
       </c>
       <c r="I178" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="179">
@@ -6305,125 +6450,135 @@
         <v>10</v>
       </c>
       <c r="C179" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D179" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="E179" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="F179" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G179" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="H179" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="I179" t="n">
-        <v>58</v>
+        <v>3</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B180" t="s">
         <v>10</v>
       </c>
       <c r="C180" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D180" t="s">
-        <v>292</v>
-      </c>
-      <c r="E180"/>
+        <v>299</v>
+      </c>
+      <c r="E180" t="s">
+        <v>303</v>
+      </c>
       <c r="F180" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G180" t="s">
-        <v>292</v>
-      </c>
-      <c r="H180"/>
+        <v>299</v>
+      </c>
+      <c r="H180" t="s">
+        <v>304</v>
+      </c>
       <c r="I180" t="n">
-        <v>91</v>
+        <v>4</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="B181" t="s">
         <v>10</v>
       </c>
       <c r="C181" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="D181" t="s">
         <v>299</v>
       </c>
       <c r="E181" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="F181" t="s">
-        <v>11</v>
-      </c>
-      <c r="G181"/>
+        <v>50</v>
+      </c>
+      <c r="G181" t="s">
+        <v>299</v>
+      </c>
       <c r="H181"/>
       <c r="I181" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="B182" t="s">
         <v>10</v>
       </c>
       <c r="C182" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="D182" t="s">
         <v>299</v>
       </c>
       <c r="E182" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="F182" t="s">
-        <v>11</v>
-      </c>
-      <c r="G182"/>
-      <c r="H182"/>
+        <v>50</v>
+      </c>
+      <c r="G182" t="s">
+        <v>299</v>
+      </c>
+      <c r="H182" t="s">
+        <v>307</v>
+      </c>
       <c r="I182" t="n">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="B183" t="s">
         <v>10</v>
       </c>
       <c r="C183" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="D183" t="s">
         <v>299</v>
       </c>
-      <c r="E183" t="s">
-        <v>302</v>
-      </c>
+      <c r="E183"/>
       <c r="F183" t="s">
-        <v>11</v>
-      </c>
-      <c r="G183"/>
+        <v>50</v>
+      </c>
+      <c r="G183" t="s">
+        <v>299</v>
+      </c>
       <c r="H183"/>
       <c r="I183" t="n">
-        <v>53</v>
+        <v>91</v>
       </c>
     </row>
     <row r="184">
@@ -6434,21 +6589,21 @@
         <v>10</v>
       </c>
       <c r="C184" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="D184" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="E184" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="F184" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="G184"/>
       <c r="H184"/>
       <c r="I184" t="n">
-        <v>54</v>
+        <v>28</v>
       </c>
     </row>
     <row r="185">
@@ -6459,69 +6614,79 @@
         <v>10</v>
       </c>
       <c r="C185" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="D185" t="s">
-        <v>299</v>
-      </c>
-      <c r="E185"/>
+        <v>308</v>
+      </c>
+      <c r="E185" t="s">
+        <v>308</v>
+      </c>
       <c r="F185" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="G185"/>
       <c r="H185"/>
       <c r="I185" t="n">
-        <v>52</v>
+        <v>27</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="B186" t="s">
         <v>10</v>
       </c>
       <c r="C186" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D186" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="E186" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="F186" t="s">
-        <v>47</v>
-      </c>
-      <c r="G186"/>
-      <c r="H186"/>
+        <v>40</v>
+      </c>
+      <c r="G186" t="s">
+        <v>310</v>
+      </c>
+      <c r="H186" t="s">
+        <v>311</v>
+      </c>
       <c r="I186" t="n">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="B187" t="s">
         <v>10</v>
       </c>
       <c r="C187" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D187" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="E187" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="F187" t="s">
-        <v>47</v>
-      </c>
-      <c r="G187"/>
-      <c r="H187"/>
+        <v>40</v>
+      </c>
+      <c r="G187" t="s">
+        <v>310</v>
+      </c>
+      <c r="H187" t="s">
+        <v>313</v>
+      </c>
       <c r="I187" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="188">
@@ -6535,80 +6700,76 @@
         <v>40</v>
       </c>
       <c r="D188" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="E188" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="F188" t="s">
         <v>40</v>
       </c>
       <c r="G188" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="H188" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="I188" t="n">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B189" t="s">
         <v>10</v>
       </c>
       <c r="C189" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="D189" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="E189" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="F189" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="G189" t="s">
-        <v>306</v>
-      </c>
-      <c r="H189" t="s">
-        <v>309</v>
-      </c>
+        <v>310</v>
+      </c>
+      <c r="H189"/>
       <c r="I189" t="n">
-        <v>30</v>
+        <v>14</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B190" t="s">
         <v>10</v>
       </c>
       <c r="C190" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="D190" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="E190" t="s">
+        <v>317</v>
+      </c>
+      <c r="F190" t="s">
+        <v>11</v>
+      </c>
+      <c r="G190" t="s">
         <v>310</v>
       </c>
-      <c r="F190" t="s">
-        <v>40</v>
-      </c>
-      <c r="G190" t="s">
-        <v>306</v>
-      </c>
-      <c r="H190" t="s">
-        <v>311</v>
-      </c>
+      <c r="H190"/>
       <c r="I190" t="n">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="191">
@@ -6622,20 +6783,20 @@
         <v>11</v>
       </c>
       <c r="D191" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="E191" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="F191" t="s">
         <v>11</v>
       </c>
       <c r="G191" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="H191"/>
       <c r="I191" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="192">
@@ -6649,20 +6810,18 @@
         <v>11</v>
       </c>
       <c r="D192" t="s">
-        <v>306</v>
-      </c>
-      <c r="E192" t="s">
-        <v>313</v>
-      </c>
+        <v>310</v>
+      </c>
+      <c r="E192"/>
       <c r="F192" t="s">
         <v>11</v>
       </c>
       <c r="G192" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="H192"/>
       <c r="I192" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="193">
@@ -6673,46 +6832,50 @@
         <v>10</v>
       </c>
       <c r="C193" t="s">
-        <v>11</v>
+        <v>168</v>
       </c>
       <c r="D193" t="s">
-        <v>306</v>
+        <v>319</v>
       </c>
       <c r="E193" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="F193" t="s">
-        <v>11</v>
+        <v>170</v>
       </c>
       <c r="G193" t="s">
-        <v>306</v>
+        <v>319</v>
       </c>
       <c r="H193"/>
       <c r="I193" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B194" t="s">
         <v>10</v>
       </c>
       <c r="C194" t="s">
-        <v>11</v>
+        <v>168</v>
       </c>
       <c r="D194" t="s">
-        <v>306</v>
-      </c>
-      <c r="E194"/>
+        <v>319</v>
+      </c>
+      <c r="E194" t="s">
+        <v>321</v>
+      </c>
       <c r="F194" t="s">
-        <v>11</v>
+        <v>170</v>
       </c>
       <c r="G194" t="s">
-        <v>306</v>
-      </c>
-      <c r="H194"/>
+        <v>319</v>
+      </c>
+      <c r="H194" t="s">
+        <v>321</v>
+      </c>
       <c r="I194" t="n">
         <v>13</v>
       </c>
@@ -6725,23 +6888,23 @@
         <v>10</v>
       </c>
       <c r="C195" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="D195" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="E195" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="F195" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="G195" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="H195"/>
       <c r="I195" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="196">
@@ -6752,52 +6915,54 @@
         <v>10</v>
       </c>
       <c r="C196" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="D196" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="E196" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="F196" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="G196" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="H196" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="I196" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B197" t="s">
         <v>10</v>
       </c>
       <c r="C197" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="D197" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="E197" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="F197" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="G197" t="s">
-        <v>315</v>
-      </c>
-      <c r="H197"/>
+        <v>319</v>
+      </c>
+      <c r="H197" t="s">
+        <v>326</v>
+      </c>
       <c r="I197" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="198">
@@ -6808,54 +6973,52 @@
         <v>10</v>
       </c>
       <c r="C198" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="D198" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="E198" t="s">
+        <v>70</v>
+      </c>
+      <c r="F198" t="s">
+        <v>170</v>
+      </c>
+      <c r="G198" t="s">
         <v>319</v>
       </c>
-      <c r="F198" t="s">
-        <v>162</v>
-      </c>
-      <c r="G198" t="s">
-        <v>315</v>
-      </c>
       <c r="H198" t="s">
-        <v>320</v>
+        <v>70</v>
       </c>
       <c r="I198" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B199" t="s">
         <v>10</v>
       </c>
       <c r="C199" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="D199" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="E199" t="s">
-        <v>321</v>
+        <v>92</v>
       </c>
       <c r="F199" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="G199" t="s">
-        <v>315</v>
-      </c>
-      <c r="H199" t="s">
-        <v>322</v>
-      </c>
+        <v>319</v>
+      </c>
+      <c r="H199"/>
       <c r="I199" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="200">
@@ -6866,25 +7029,25 @@
         <v>10</v>
       </c>
       <c r="C200" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="D200" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="E200" t="s">
-        <v>64</v>
+        <v>327</v>
       </c>
       <c r="F200" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="G200" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="H200" t="s">
-        <v>64</v>
+        <v>327</v>
       </c>
       <c r="I200" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201">
@@ -6895,23 +7058,23 @@
         <v>10</v>
       </c>
       <c r="C201" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="D201" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="E201" t="s">
-        <v>92</v>
+        <v>328</v>
       </c>
       <c r="F201" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="G201" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="H201"/>
       <c r="I201" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="202">
@@ -6922,81 +7085,81 @@
         <v>10</v>
       </c>
       <c r="C202" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="D202" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="E202" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="F202" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="G202" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="H202" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="I202" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B203" t="s">
         <v>10</v>
       </c>
       <c r="C203" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="D203" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="E203" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="F203" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="G203" t="s">
-        <v>315</v>
-      </c>
-      <c r="H203"/>
+        <v>319</v>
+      </c>
+      <c r="H203" t="s">
+        <v>332</v>
+      </c>
       <c r="I203" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B204" t="s">
         <v>10</v>
       </c>
       <c r="C204" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="D204" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="E204" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="F204" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="G204" t="s">
-        <v>315</v>
-      </c>
-      <c r="H204" t="s">
-        <v>326</v>
-      </c>
+        <v>319</v>
+      </c>
+      <c r="H204"/>
       <c r="I204" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="205">
@@ -7007,81 +7170,81 @@
         <v>10</v>
       </c>
       <c r="C205" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="D205" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="E205" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="F205" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="G205" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="H205" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="I205" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B206" t="s">
         <v>10</v>
       </c>
       <c r="C206" t="s">
-        <v>160</v>
+        <v>24</v>
       </c>
       <c r="D206" t="s">
-        <v>315</v>
+        <v>336</v>
       </c>
       <c r="E206" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="F206" t="s">
-        <v>162</v>
+        <v>24</v>
       </c>
       <c r="G206" t="s">
-        <v>315</v>
-      </c>
-      <c r="H206"/>
+        <v>336</v>
+      </c>
+      <c r="H206" t="s">
+        <v>337</v>
+      </c>
       <c r="I206" t="n">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B207" t="s">
         <v>10</v>
       </c>
       <c r="C207" t="s">
-        <v>160</v>
+        <v>24</v>
       </c>
       <c r="D207" t="s">
-        <v>315</v>
+        <v>336</v>
       </c>
       <c r="E207" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="F207" t="s">
-        <v>162</v>
+        <v>24</v>
       </c>
       <c r="G207" t="s">
-        <v>315</v>
-      </c>
-      <c r="H207" t="s">
-        <v>331</v>
-      </c>
+        <v>336</v>
+      </c>
+      <c r="H207"/>
       <c r="I207" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="208">
@@ -7095,27 +7258,27 @@
         <v>24</v>
       </c>
       <c r="D208" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="E208" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="F208" t="s">
         <v>24</v>
       </c>
       <c r="G208" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="H208" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="I208" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B209" t="s">
         <v>10</v>
@@ -7124,25 +7287,27 @@
         <v>24</v>
       </c>
       <c r="D209" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="E209" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="F209" t="s">
         <v>24</v>
       </c>
       <c r="G209" t="s">
-        <v>332</v>
-      </c>
-      <c r="H209"/>
+        <v>336</v>
+      </c>
+      <c r="H209" t="s">
+        <v>341</v>
+      </c>
       <c r="I209" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B210" t="s">
         <v>10</v>
@@ -7151,22 +7316,20 @@
         <v>24</v>
       </c>
       <c r="D210" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="E210" t="s">
-        <v>335</v>
+        <v>310</v>
       </c>
       <c r="F210" t="s">
         <v>24</v>
       </c>
       <c r="G210" t="s">
-        <v>332</v>
-      </c>
-      <c r="H210" t="s">
         <v>336</v>
       </c>
+      <c r="H210"/>
       <c r="I210" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="211">
@@ -7180,22 +7343,22 @@
         <v>24</v>
       </c>
       <c r="D211" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="E211" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="F211" t="s">
         <v>24</v>
       </c>
       <c r="G211" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="H211" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="I211" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="212">
@@ -7209,49 +7372,47 @@
         <v>24</v>
       </c>
       <c r="D212" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="E212" t="s">
-        <v>306</v>
+        <v>344</v>
       </c>
       <c r="F212" t="s">
         <v>24</v>
       </c>
       <c r="G212" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="H212"/>
       <c r="I212" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B213" t="s">
         <v>10</v>
       </c>
       <c r="C213" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="D213" t="s">
-        <v>332</v>
+        <v>199</v>
       </c>
       <c r="E213" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="F213" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="G213" t="s">
-        <v>332</v>
-      </c>
-      <c r="H213" t="s">
-        <v>339</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="H213"/>
       <c r="I213" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="214">
@@ -7262,103 +7423,109 @@
         <v>10</v>
       </c>
       <c r="C214" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="D214" t="s">
-        <v>332</v>
+        <v>199</v>
       </c>
       <c r="E214" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="F214" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="G214" t="s">
-        <v>332</v>
+        <v>199</v>
       </c>
       <c r="H214"/>
       <c r="I214" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="B215" t="s">
         <v>10</v>
       </c>
       <c r="C215" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="D215" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="E215" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="F215" t="s">
-        <v>40</v>
-      </c>
-      <c r="G215"/>
+        <v>11</v>
+      </c>
+      <c r="G215" t="s">
+        <v>199</v>
+      </c>
       <c r="H215"/>
       <c r="I215" t="n">
-        <v>25</v>
+        <v>6</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="B216" t="s">
         <v>10</v>
       </c>
       <c r="C216" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="D216" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="E216" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="F216" t="s">
-        <v>40</v>
-      </c>
-      <c r="G216"/>
+        <v>11</v>
+      </c>
+      <c r="G216" t="s">
+        <v>199</v>
+      </c>
       <c r="H216"/>
       <c r="I216" t="n">
-        <v>26</v>
+        <v>7</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="B217" t="s">
         <v>10</v>
       </c>
       <c r="C217" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="D217" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="E217" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="F217" t="s">
-        <v>11</v>
-      </c>
-      <c r="G217"/>
+        <v>40</v>
+      </c>
+      <c r="G217" t="s">
+        <v>199</v>
+      </c>
       <c r="H217"/>
       <c r="I217" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="B218" t="s">
         <v>10</v>
@@ -7367,73 +7534,81 @@
         <v>11</v>
       </c>
       <c r="D218" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="E218" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="F218" t="s">
         <v>11</v>
       </c>
-      <c r="G218"/>
+      <c r="G218" t="s">
+        <v>199</v>
+      </c>
       <c r="H218"/>
       <c r="I218" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="B219" t="s">
         <v>10</v>
       </c>
       <c r="C219" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="D219" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="E219" t="s">
-        <v>345</v>
+        <v>199</v>
       </c>
       <c r="F219" t="s">
-        <v>40</v>
-      </c>
-      <c r="G219"/>
-      <c r="H219"/>
+        <v>11</v>
+      </c>
+      <c r="G219" t="s">
+        <v>199</v>
+      </c>
+      <c r="H219" t="s">
+        <v>351</v>
+      </c>
       <c r="I219" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="B220" t="s">
         <v>10</v>
       </c>
       <c r="C220" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="D220" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="E220" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="F220" t="s">
-        <v>11</v>
-      </c>
-      <c r="G220"/>
+        <v>40</v>
+      </c>
+      <c r="G220" t="s">
+        <v>199</v>
+      </c>
       <c r="H220"/>
       <c r="I220" t="n">
-        <v>8</v>
+        <v>22</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="B221" t="s">
         <v>10</v>
@@ -7442,123 +7617,133 @@
         <v>11</v>
       </c>
       <c r="D221" t="s">
-        <v>191</v>
+        <v>353</v>
       </c>
       <c r="E221" t="s">
-        <v>191</v>
+        <v>354</v>
       </c>
       <c r="F221" t="s">
         <v>11</v>
       </c>
-      <c r="G221"/>
+      <c r="G221" t="s">
+        <v>353</v>
+      </c>
       <c r="H221"/>
       <c r="I221" t="n">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="B222" t="s">
         <v>10</v>
       </c>
       <c r="C222" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="D222" t="s">
-        <v>191</v>
+        <v>353</v>
       </c>
       <c r="E222" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="F222" t="s">
-        <v>40</v>
-      </c>
-      <c r="G222"/>
+        <v>11</v>
+      </c>
+      <c r="G222" t="s">
+        <v>353</v>
+      </c>
       <c r="H222"/>
       <c r="I222" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="B223" t="s">
         <v>10</v>
       </c>
       <c r="C223" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="D223" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="E223" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="F223" t="s">
-        <v>11</v>
-      </c>
-      <c r="G223"/>
+        <v>40</v>
+      </c>
+      <c r="G223" t="s">
+        <v>353</v>
+      </c>
       <c r="H223"/>
       <c r="I223" t="n">
-        <v>22</v>
+        <v>49</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="B224" t="s">
         <v>10</v>
       </c>
       <c r="C224" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="D224" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="E224" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="F224" t="s">
-        <v>11</v>
-      </c>
-      <c r="G224"/>
+        <v>40</v>
+      </c>
+      <c r="G224" t="s">
+        <v>353</v>
+      </c>
       <c r="H224"/>
       <c r="I224" t="n">
-        <v>20</v>
+        <v>45</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="B225" t="s">
         <v>10</v>
       </c>
       <c r="C225" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="D225" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="E225" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="F225" t="s">
-        <v>40</v>
-      </c>
-      <c r="G225"/>
+        <v>11</v>
+      </c>
+      <c r="G225" t="s">
+        <v>353</v>
+      </c>
       <c r="H225"/>
       <c r="I225" t="n">
-        <v>49</v>
+        <v>17</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="B226" t="s">
         <v>10</v>
@@ -7567,23 +7752,25 @@
         <v>40</v>
       </c>
       <c r="D226" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="E226" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="F226" t="s">
         <v>40</v>
       </c>
-      <c r="G226"/>
+      <c r="G226" t="s">
+        <v>353</v>
+      </c>
       <c r="H226"/>
       <c r="I226" t="n">
-        <v>45</v>
+        <v>53</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="B227" t="s">
         <v>10</v>
@@ -7592,23 +7779,25 @@
         <v>11</v>
       </c>
       <c r="D227" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="E227" t="s">
+        <v>360</v>
+      </c>
+      <c r="F227" t="s">
+        <v>11</v>
+      </c>
+      <c r="G227" t="s">
         <v>353</v>
       </c>
-      <c r="F227" t="s">
-        <v>11</v>
-      </c>
-      <c r="G227"/>
       <c r="H227"/>
       <c r="I227" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="B228" t="s">
         <v>10</v>
@@ -7617,23 +7806,25 @@
         <v>40</v>
       </c>
       <c r="D228" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="E228" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="F228" t="s">
         <v>40</v>
       </c>
-      <c r="G228"/>
+      <c r="G228" t="s">
+        <v>353</v>
+      </c>
       <c r="H228"/>
       <c r="I228" t="n">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="B229" t="s">
         <v>10</v>
@@ -7642,97 +7833,105 @@
         <v>11</v>
       </c>
       <c r="D229" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="E229" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="F229" t="s">
         <v>11</v>
       </c>
-      <c r="G229"/>
+      <c r="G229" t="s">
+        <v>353</v>
+      </c>
       <c r="H229"/>
       <c r="I229" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="B230" t="s">
         <v>10</v>
       </c>
       <c r="C230" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="D230" t="s">
-        <v>348</v>
+        <v>363</v>
       </c>
       <c r="E230" t="s">
-        <v>356</v>
+        <v>13</v>
       </c>
       <c r="F230" t="s">
-        <v>40</v>
-      </c>
-      <c r="G230"/>
-      <c r="H230"/>
+        <v>67</v>
+      </c>
+      <c r="G230" t="s">
+        <v>363</v>
+      </c>
+      <c r="H230" t="s">
+        <v>364</v>
+      </c>
       <c r="I230" t="n">
-        <v>51</v>
+        <v>11</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="B231" t="s">
         <v>10</v>
       </c>
       <c r="C231" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="D231" t="s">
-        <v>348</v>
+        <v>363</v>
       </c>
       <c r="E231" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="F231" t="s">
-        <v>11</v>
-      </c>
-      <c r="G231"/>
-      <c r="H231"/>
+        <v>67</v>
+      </c>
+      <c r="G231" t="s">
+        <v>363</v>
+      </c>
+      <c r="H231" t="s">
+        <v>366</v>
+      </c>
       <c r="I231" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B232" t="s">
         <v>10</v>
       </c>
       <c r="C232" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D232" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="E232" t="s">
-        <v>13</v>
+        <v>367</v>
       </c>
       <c r="F232" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="G232" t="s">
-        <v>358</v>
-      </c>
-      <c r="H232" t="s">
-        <v>359</v>
-      </c>
+        <v>363</v>
+      </c>
+      <c r="H232"/>
       <c r="I232" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="233">
@@ -7743,160 +7942,162 @@
         <v>10</v>
       </c>
       <c r="C233" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D233" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="E233" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="F233" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="G233" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="H233" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="I233" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B234" t="s">
         <v>10</v>
       </c>
       <c r="C234" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D234" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="E234" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="F234" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="G234" t="s">
-        <v>358</v>
-      </c>
-      <c r="H234"/>
+        <v>363</v>
+      </c>
+      <c r="H234" t="s">
+        <v>371</v>
+      </c>
       <c r="I234" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="B235" t="s">
         <v>10</v>
       </c>
       <c r="C235" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="D235" t="s">
-        <v>358</v>
+        <v>372</v>
       </c>
       <c r="E235" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="F235" t="s">
-        <v>61</v>
-      </c>
-      <c r="G235" t="s">
-        <v>358</v>
-      </c>
-      <c r="H235" t="s">
-        <v>364</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="G235"/>
+      <c r="H235"/>
       <c r="I235" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="B236" t="s">
         <v>10</v>
       </c>
       <c r="C236" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="D236" t="s">
-        <v>358</v>
+        <v>372</v>
       </c>
       <c r="E236" t="s">
-        <v>365</v>
+        <v>374</v>
       </c>
       <c r="F236" t="s">
-        <v>61</v>
-      </c>
-      <c r="G236" t="s">
-        <v>358</v>
-      </c>
-      <c r="H236" t="s">
-        <v>366</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="G236"/>
+      <c r="H236"/>
       <c r="I236" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="B237" t="s">
         <v>10</v>
       </c>
       <c r="C237" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="D237" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="E237" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="F237" t="s">
-        <v>11</v>
-      </c>
-      <c r="G237"/>
-      <c r="H237"/>
+        <v>40</v>
+      </c>
+      <c r="G237" t="s">
+        <v>375</v>
+      </c>
+      <c r="H237" t="s">
+        <v>377</v>
+      </c>
       <c r="I237" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="B238" t="s">
         <v>10</v>
       </c>
       <c r="C238" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="D238" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="E238" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="F238" t="s">
-        <v>11</v>
-      </c>
-      <c r="G238"/>
-      <c r="H238"/>
+        <v>40</v>
+      </c>
+      <c r="G238" t="s">
+        <v>375</v>
+      </c>
+      <c r="H238" t="s">
+        <v>379</v>
+      </c>
       <c r="I238" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="239">
@@ -7910,22 +8111,22 @@
         <v>40</v>
       </c>
       <c r="D239" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="E239" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="F239" t="s">
         <v>40</v>
       </c>
       <c r="G239" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="H239" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="I239" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240">
@@ -7939,98 +8140,23 @@
         <v>40</v>
       </c>
       <c r="D240" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="E240" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="F240" t="s">
         <v>40</v>
       </c>
       <c r="G240" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="H240" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="I240" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" t="s">
-        <v>14</v>
-      </c>
-      <c r="B241" t="s">
-        <v>10</v>
-      </c>
-      <c r="C241" t="s">
-        <v>40</v>
-      </c>
-      <c r="D241" t="s">
-        <v>370</v>
-      </c>
-      <c r="E241" t="s">
-        <v>375</v>
-      </c>
-      <c r="F241" t="s">
-        <v>40</v>
-      </c>
-      <c r="G241" t="s">
-        <v>370</v>
-      </c>
-      <c r="H241" t="s">
-        <v>375</v>
-      </c>
-      <c r="I241" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" t="s">
-        <v>14</v>
-      </c>
-      <c r="B242" t="s">
-        <v>10</v>
-      </c>
-      <c r="C242" t="s">
-        <v>40</v>
-      </c>
-      <c r="D242" t="s">
-        <v>370</v>
-      </c>
-      <c r="E242" t="s">
-        <v>376</v>
-      </c>
-      <c r="F242" t="s">
-        <v>40</v>
-      </c>
-      <c r="G242" t="s">
-        <v>370</v>
-      </c>
-      <c r="H242" t="s">
-        <v>377</v>
-      </c>
-      <c r="I242" t="n">
         <v>8</v>
       </c>
-    </row>
-    <row r="243">
-      <c r="A243" t="s">
-        <v>42</v>
-      </c>
-      <c r="B243" t="s">
-        <v>10</v>
-      </c>
-      <c r="C243" t="s">
-        <v>43</v>
-      </c>
-      <c r="D243"/>
-      <c r="E243"/>
-      <c r="F243"/>
-      <c r="G243"/>
-      <c r="H243"/>
-      <c r="I243"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
